--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D725B-6F83-4A7C-B2D8-CD67671AB816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC069E-1C86-4586-B0E3-037BF41C0275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
   <si>
     <t>Informações de saída</t>
   </si>
@@ -196,55 +196,88 @@
     <t>Roma, Itália</t>
   </si>
   <si>
-    <t>Chegada em Roma</t>
-  </si>
-  <si>
-    <t>Explorar Roma: Coliseu, Vaticano, Fontana di Trevi</t>
-  </si>
-  <si>
-    <t>Mais explorar Roma: Panteão, Fórum Romano</t>
-  </si>
-  <si>
     <t>Grécia - Santorini</t>
-  </si>
-  <si>
-    <t>Viagem de Roma para Santorini</t>
   </si>
   <si>
     <t>Santorini, Grécia</t>
   </si>
   <si>
-    <t>Relaxar e explorar Santorini</t>
-  </si>
-  <si>
-    <t>Praias, pôr do sol em Oia</t>
-  </si>
-  <si>
     <t>Zurique, Suíça</t>
-  </si>
-  <si>
-    <t>Viagem de Santorini para Zurique</t>
-  </si>
-  <si>
-    <t>Explorar Zurique: Museu Lindt, centro da cidade</t>
   </si>
   <si>
     <t>Lucerna, Suíça</t>
   </si>
   <si>
-    <t>Viagem de Zurique para Lucerna</t>
-  </si>
-  <si>
-    <t>Explorar Lucerna: Ponte da Capela, centro histórico</t>
-  </si>
-  <si>
-    <t>Viagem de Lucerna para Zurique (Preparativos para volta)</t>
-  </si>
-  <si>
     <t>Brasil (Retorno)</t>
   </si>
   <si>
-    <t>Partida de Zurique para o Brasil</t>
+    <t>Dia da Semana</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Segunda-feira</t>
+  </si>
+  <si>
+    <t>Chegada em Roma.</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>Explorar Roma: Coliseu, Fórum Romano, Palatino.</t>
+  </si>
+  <si>
+    <t>Quarta-feira</t>
+  </si>
+  <si>
+    <t>Visitar o Vaticano: Basílica de São Pedro, Museus Vaticanos, Capela Sistina.</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>Viagem de Roma para Santorini.</t>
+  </si>
+  <si>
+    <t>Sexta-feira</t>
+  </si>
+  <si>
+    <t>Relaxar e explorar Santorini.</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Passeio de barco ao vulcão Nea Kameni, águas termais.</t>
+  </si>
+  <si>
+    <t>Explorar praias de Santorini: Red Beach, Kamari Beach.</t>
+  </si>
+  <si>
+    <t>Viagem de Santorini para Zurique (06:05 - 10:20). Explorar Zurique: Museu Lindt, Bahnhofstrasse (rua comercial).</t>
+  </si>
+  <si>
+    <t>Viagem de Zurique para Lucerna. Explorar Lucerna: Ponte da Capela, Monte Pilatus (opcional).</t>
+  </si>
+  <si>
+    <t>Passeio de barco pelo Lago dos Quatro Cantões, explorar a Cidade Velha.</t>
+  </si>
+  <si>
+    <t>Viagem de Lucerna para Zurique (Preparativos para a volta).</t>
+  </si>
+  <si>
+    <t>Partida de Zurique para o Brasil.</t>
+  </si>
+  <si>
+    <t>ITÁLIA</t>
+  </si>
+  <si>
+    <t>GRÉCIA</t>
+  </si>
+  <si>
+    <t>SUÍÇA</t>
   </si>
 </sst>
 </file>
@@ -435,7 +468,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,8 +654,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -752,6 +797,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -802,7 +1010,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,25 +1036,63 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="22" fillId="14" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="23" fillId="21" borderId="10" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="22" fillId="23" borderId="10" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="34" borderId="16" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="14" borderId="10" xfId="28" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="28" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="35" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,6 +1148,24 @@
   <dxfs count="105">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -914,6 +1178,73 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -979,26 +1310,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1013,7 +1325,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1079,6 +1410,21 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1099,21 +1445,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1179,6 +1510,21 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1199,21 +1545,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1279,92 +1610,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1455,6 +1701,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1467,6 +1731,73 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1532,26 +1863,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1566,7 +1878,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1632,6 +1963,21 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1652,21 +1998,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1732,6 +2063,21 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1752,21 +2098,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1832,92 +2163,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2008,6 +2254,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2020,6 +2284,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2049,7 +2331,77 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2079,7 +2431,77 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2109,7 +2531,77 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2139,6 +2631,91 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2154,7 +2731,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2200,356 +2796,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -24794,11 +25040,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A2:B15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24808,8 +25054,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A51:B57" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24819,8 +25065,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24830,8 +25076,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A59:B62" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24852,8 +25098,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24863,8 +25109,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A36:B49" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A36:B49" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24874,8 +25120,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A51:B57" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A51:B57" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24885,8 +25131,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B34" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A26:B34" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24896,63 +25142,63 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A59:B62" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A59:B62" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="100" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A17:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="97" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A36:B49" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="94" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A51:B57" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="91" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="88" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A59:B62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24973,8 +25219,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24984,8 +25230,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A36:B49" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26432,174 +26678,247 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="77.33203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="77.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>45086</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D3" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>45087</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>54</v>
+      <c r="D4" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>45088</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>45089</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>45090</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>45091</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>45092</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>45093</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>45094</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>45095</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>45089</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>45096</v>
+    <row r="7" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>80</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>65</v>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>45090</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>45097</v>
+      <c r="C8" s="29" t="s">
+        <v>54</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="D8" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>45098</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>45091</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>45092</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>45093</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>45094</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>45095</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>45096</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>45097</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>45098</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC069E-1C86-4586-B0E3-037BF41C0275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2450C2E-4AD7-41D3-96AB-6D357B0FA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1049,25 +1049,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,6 +1075,24 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -26678,54 +26677,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.33203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="79.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="77.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="18">
         <v>45086</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -26771,25 +26770,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="21">
         <v>45090</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26835,81 +26834,93 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="21">
         <v>45094</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>45095</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>45096</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>45097</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>45098</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D19" s="20" t="s">
         <v>78</v>
       </c>
     </row>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2450C2E-4AD7-41D3-96AB-6D357B0FA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674B5EC-5ACE-4F09-B121-E045B9ECCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
   <si>
     <t>Informações de saída</t>
   </si>
@@ -278,6 +278,51 @@
   </si>
   <si>
     <t>SUÍÇA</t>
+  </si>
+  <si>
+    <t>AEGEAN</t>
+  </si>
+  <si>
+    <t>V5J7DB</t>
+  </si>
+  <si>
+    <t>SANTORINI</t>
+  </si>
+  <si>
+    <t>ZURIQUE</t>
+  </si>
+  <si>
+    <t>16F - 16E</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>17/06 ATÉ 21/06</t>
+  </si>
+  <si>
+    <t>IBIS ZURICH MESSE AIRPORT</t>
+  </si>
+  <si>
+    <t>HEIDI ABEL-WEG 5, ZURICH, 8050, SUIÇA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/06 - 14HRS </t>
+  </si>
+  <si>
+    <t>21/06 - 12HRS</t>
+  </si>
+  <si>
+    <t>Home of Chocolate (Lindt Chocolate Museum) - Zurique</t>
+  </si>
+  <si>
+    <t>Passeio de Barco pelo Lago de Zurique</t>
+  </si>
+  <si>
+    <t>Atividade 3</t>
+  </si>
+  <si>
+    <t>Passeio em Lucerna</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1055,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,6 +1138,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -25105,8 +25156,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A36:B49" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A36:B49" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A40:B53" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
     <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="18"/>
@@ -25116,8 +25167,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A51:B57" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A51:B57" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A55:B61" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
     <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
@@ -25127,8 +25178,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B34" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A26:B34" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6"/>
@@ -25138,8 +25189,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A59:B62" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A59:B62" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A63:B66" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
@@ -26261,10 +26312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -26289,31 +26340,41 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="29">
+        <v>45460</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="30">
+        <v>0.25347222222222221</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -26325,25 +26386,33 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="30">
+        <v>0.43055555555555558</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="30">
+        <v>0.21875</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -26355,7 +26424,9 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -26375,19 +26446,25 @@
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -26399,19 +26476,25 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>3709071136</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -26425,7 +26508,9 @@
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -26449,7 +26534,9 @@
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -26469,188 +26556,215 @@
       </c>
       <c r="B34" s="3"/>
     </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3"/>
-    </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B49" s="3"/>
     </row>
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="3"/>
-    </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B57" s="3"/>
     </row>
+    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="3"/>
+    </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B64" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="6">
     <tablePart r:id="rId2"/>
@@ -26679,8 +26793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.33203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674B5EC-5ACE-4F09-B121-E045B9ECCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{8674B5EC-5ACE-4F09-B121-E045B9ECCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD306E7D-FDF9-4884-AA38-DF97DF63C10A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="97">
   <si>
     <t>Informações de saída</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Terça-feira</t>
   </si>
   <si>
-    <t>Explorar Roma: Coliseu, Fórum Romano, Palatino.</t>
-  </si>
-  <si>
     <t>Quarta-feira</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
   </si>
   <si>
     <t>Viagem de Zurique para Lucerna. Explorar Lucerna: Ponte da Capela, Monte Pilatus (opcional).</t>
-  </si>
-  <si>
-    <t>Passeio de barco pelo Lago dos Quatro Cantões, explorar a Cidade Velha.</t>
   </si>
   <si>
     <t>Viagem de Lucerna para Zurique (Preparativos para a volta).</t>
@@ -323,6 +317,12 @@
   </si>
   <si>
     <t>Passeio em Lucerna</t>
+  </si>
+  <si>
+    <t>Passeio de barco pelo Lago dos Quatro Cantões</t>
+  </si>
+  <si>
+    <t>Coliseu, Fórum Romano, Palatino.</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,20 +1075,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="22" fillId="14" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,29 +1088,23 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="23" fillId="34" borderId="16" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="35" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,11 +1124,59 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="23" fillId="34" borderId="16" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="35" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="14" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1195,7 +1228,560 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="139">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2895,9 +3481,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabela 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="104"/>
-      <tableStyleElement type="headerRow" dxfId="103"/>
-      <tableStyleElement type="firstRowStripe" dxfId="102"/>
+      <tableStyleElement type="wholeTable" dxfId="138"/>
+      <tableStyleElement type="headerRow" dxfId="137"/>
+      <tableStyleElement type="firstRowStripe" dxfId="136"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -8379,7 +8965,7 @@
         <a:p>
           <a:pPr algn="l" rtl="0"/>
           <a:r>
-            <a:rPr lang="pt-br" sz="2400">
+            <a:rPr lang="pt-br" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8388,7 +8974,7 @@
             <a:t>Brasil - Itália</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-br" sz="2400" baseline="0">
+            <a:rPr lang="pt-br" sz="1600" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8397,7 +8983,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-br" sz="2400">
+            <a:rPr lang="pt-br" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8405,7 +8991,7 @@
             </a:rPr>
             <a:t>Roma)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2400">
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -19424,33 +20010,15 @@
         <a:p>
           <a:pPr algn="l" rtl="0"/>
           <a:r>
-            <a:rPr lang="pt-br" sz="2400">
+            <a:rPr lang="pt-br" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Brasil - Itália</a:t>
+            <a:t>Brasil - Grécia(Santorini)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="pt-br" sz="2400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-br" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Roma)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400">
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -24964,7 +25532,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -24986,39 +25553,25 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0"/>
+          <a:pPr marL="0" indent="0" algn="l" rtl="0"/>
           <a:r>
-            <a:rPr lang="pt-br" sz="2400">
+            <a:rPr lang="pt-br" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Brasil - Itália</a:t>
+            <a:t>Brasil - Suiça(Zurique-Luicerna)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="pt-br" sz="2400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-br" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Roma)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -25089,199 +25642,5803 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11203</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 31" descr="&quot;&quot;" title="Header artwork">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8230FBAF-CF20-4902-9306-D614163F0069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11203" y="0"/>
+          <a:ext cx="7742146" cy="828675"/>
+          <a:chOff x="11203" y="1"/>
+          <a:chExt cx="10897375" cy="1385455"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Faixa" descr="&quot;&quot;" title="Header artwork">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE57679-A134-E25B-08C5-878B7CE03726}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11203" y="1"/>
+            <a:ext cx="10897375" cy="1385455"/>
+            <a:chOff x="-2" y="1"/>
+            <a:chExt cx="10083197" cy="1385455"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Retângulo 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916500E5-CF67-779B-7C85-0907DB10F864}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="-2" y="1"/>
+              <a:ext cx="10083197" cy="1385455"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="6" name="Grupo 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3182C7F3-0E62-98C3-0397-4FBC121D4D27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks noChangeAspect="1"/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6034776" y="192976"/>
+              <a:ext cx="1401665" cy="859438"/>
+              <a:chOff x="2724" y="1063"/>
+              <a:chExt cx="3516" cy="2194"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="24" name="AutoForma 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6F6F6F-CADA-2E4C-C2DF-02E4EEC13F5C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="2724" y="1063"/>
+                <a:ext cx="2232" cy="2194"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="25" name="Forma livre 14">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B2F0DD-9DA3-C11E-101D-7EB07886C77B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3982" y="2666"/>
+                <a:ext cx="2258" cy="591"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 884 w 1014"/>
+                  <a:gd name="T1" fmla="*/ 221 h 265"/>
+                  <a:gd name="T2" fmla="*/ 815 w 1014"/>
+                  <a:gd name="T3" fmla="*/ 265 h 265"/>
+                  <a:gd name="T4" fmla="*/ 199 w 1014"/>
+                  <a:gd name="T5" fmla="*/ 265 h 265"/>
+                  <a:gd name="T6" fmla="*/ 129 w 1014"/>
+                  <a:gd name="T7" fmla="*/ 221 h 265"/>
+                  <a:gd name="T8" fmla="*/ 11 w 1014"/>
+                  <a:gd name="T9" fmla="*/ 44 h 265"/>
+                  <a:gd name="T10" fmla="*/ 39 w 1014"/>
+                  <a:gd name="T11" fmla="*/ 0 h 265"/>
+                  <a:gd name="T12" fmla="*/ 974 w 1014"/>
+                  <a:gd name="T13" fmla="*/ 0 h 265"/>
+                  <a:gd name="T14" fmla="*/ 1002 w 1014"/>
+                  <a:gd name="T15" fmla="*/ 44 h 265"/>
+                  <a:gd name="T16" fmla="*/ 884 w 1014"/>
+                  <a:gd name="T17" fmla="*/ 221 h 265"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="1014" h="265">
+                    <a:moveTo>
+                      <a:pt x="884" y="221"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="873" y="245"/>
+                      <a:pt x="842" y="265"/>
+                      <a:pt x="815" y="265"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="199" y="265"/>
+                      <a:pt x="199" y="265"/>
+                      <a:pt x="199" y="265"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="172" y="265"/>
+                      <a:pt x="140" y="245"/>
+                      <a:pt x="129" y="221"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="11" y="44"/>
+                      <a:pt x="11" y="44"/>
+                      <a:pt x="11" y="44"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="20"/>
+                      <a:pt x="12" y="0"/>
+                      <a:pt x="39" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="974" y="0"/>
+                      <a:pt x="974" y="0"/>
+                      <a:pt x="974" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1001" y="0"/>
+                      <a:pt x="1014" y="20"/>
+                      <a:pt x="1002" y="44"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="884" y="221"/>
+                    </a:lnTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="26" name="Forma livre 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95C8186-CCDD-BB3D-4333-BC1854276A08}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4400" y="1770"/>
+                <a:ext cx="613" cy="749"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 0 w 275"/>
+                  <a:gd name="T1" fmla="*/ 336 h 336"/>
+                  <a:gd name="T2" fmla="*/ 275 w 275"/>
+                  <a:gd name="T3" fmla="*/ 336 h 336"/>
+                  <a:gd name="T4" fmla="*/ 275 w 275"/>
+                  <a:gd name="T5" fmla="*/ 0 h 336"/>
+                  <a:gd name="T6" fmla="*/ 0 w 275"/>
+                  <a:gd name="T7" fmla="*/ 336 h 336"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="275" h="336">
+                    <a:moveTo>
+                      <a:pt x="0" y="336"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="275" y="336"/>
+                      <a:pt x="275" y="336"/>
+                      <a:pt x="275" y="336"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="275" y="0"/>
+                      <a:pt x="275" y="0"/>
+                      <a:pt x="275" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="131" y="0"/>
+                      <a:pt x="14" y="147"/>
+                      <a:pt x="0" y="336"/>
+                    </a:cubicBezTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="27" name="Forma livre 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8CD3E7-BD83-02DA-B15F-4AD856C9BBE9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5176" y="1063"/>
+                <a:ext cx="641" cy="1456"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 0 w 288"/>
+                  <a:gd name="T1" fmla="*/ 0 h 653"/>
+                  <a:gd name="T2" fmla="*/ 0 w 288"/>
+                  <a:gd name="T3" fmla="*/ 653 h 653"/>
+                  <a:gd name="T4" fmla="*/ 288 w 288"/>
+                  <a:gd name="T5" fmla="*/ 653 h 653"/>
+                  <a:gd name="T6" fmla="*/ 0 w 288"/>
+                  <a:gd name="T7" fmla="*/ 0 h 653"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="288" h="653">
+                    <a:moveTo>
+                      <a:pt x="0" y="0"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="653"/>
+                      <a:pt x="0" y="653"/>
+                      <a:pt x="0" y="653"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="288" y="653"/>
+                      <a:pt x="288" y="653"/>
+                      <a:pt x="288" y="653"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="269" y="370"/>
+                      <a:pt x="158" y="129"/>
+                      <a:pt x="0" y="0"/>
+                    </a:cubicBezTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="28" name="Oval 58">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31164E7-2D4B-ADB9-577D-691465D0556F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5871" y="2764"/>
+                <a:ext cx="147" cy="147"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Forma livre 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA0E6BE-23AA-BA28-52DA-0BF2DD9FD313}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7506985" y="180426"/>
+              <a:ext cx="807119" cy="501014"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="T0" fmla="*/ 2992 w 2992"/>
+                <a:gd name="T1" fmla="*/ 783 h 1826"/>
+                <a:gd name="T2" fmla="*/ 2418 w 2992"/>
+                <a:gd name="T3" fmla="*/ 209 h 1826"/>
+                <a:gd name="T4" fmla="*/ 2181 w 2992"/>
+                <a:gd name="T5" fmla="*/ 260 h 1826"/>
+                <a:gd name="T6" fmla="*/ 1780 w 2992"/>
+                <a:gd name="T7" fmla="*/ 0 h 1826"/>
+                <a:gd name="T8" fmla="*/ 1471 w 2992"/>
+                <a:gd name="T9" fmla="*/ 127 h 1826"/>
+                <a:gd name="T10" fmla="*/ 1131 w 2992"/>
+                <a:gd name="T11" fmla="*/ 8 h 1826"/>
+                <a:gd name="T12" fmla="*/ 668 w 2992"/>
+                <a:gd name="T13" fmla="*/ 264 h 1826"/>
+                <a:gd name="T14" fmla="*/ 408 w 2992"/>
+                <a:gd name="T15" fmla="*/ 170 h 1826"/>
+                <a:gd name="T16" fmla="*/ 0 w 2992"/>
+                <a:gd name="T17" fmla="*/ 577 h 1826"/>
+                <a:gd name="T18" fmla="*/ 177 w 2992"/>
+                <a:gd name="T19" fmla="*/ 912 h 1826"/>
+                <a:gd name="T20" fmla="*/ 119 w 2992"/>
+                <a:gd name="T21" fmla="*/ 1153 h 1826"/>
+                <a:gd name="T22" fmla="*/ 647 w 2992"/>
+                <a:gd name="T23" fmla="*/ 1680 h 1826"/>
+                <a:gd name="T24" fmla="*/ 994 w 2992"/>
+                <a:gd name="T25" fmla="*/ 1551 h 1826"/>
+                <a:gd name="T26" fmla="*/ 1473 w 2992"/>
+                <a:gd name="T27" fmla="*/ 1826 h 1826"/>
+                <a:gd name="T28" fmla="*/ 1882 w 2992"/>
+                <a:gd name="T29" fmla="*/ 1646 h 1826"/>
+                <a:gd name="T30" fmla="*/ 2191 w 2992"/>
+                <a:gd name="T31" fmla="*/ 1732 h 1826"/>
+                <a:gd name="T32" fmla="*/ 2785 w 2992"/>
+                <a:gd name="T33" fmla="*/ 1224 h 1826"/>
+                <a:gd name="T34" fmla="*/ 2992 w 2992"/>
+                <a:gd name="T35" fmla="*/ 783 h 1826"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="T0" y="T1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T2" y="T3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T4" y="T5"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T6" y="T7"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T8" y="T9"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T10" y="T11"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T12" y="T13"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T14" y="T15"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T16" y="T17"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T18" y="T19"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T20" y="T21"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T22" y="T23"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T24" y="T25"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T26" y="T27"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T28" y="T29"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T30" y="T31"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T32" y="T33"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T34" y="T35"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="0" t="0" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="2992" h="1826">
+                  <a:moveTo>
+                    <a:pt x="2992" y="783"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2992" y="466"/>
+                    <a:pt x="2735" y="209"/>
+                    <a:pt x="2418" y="209"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2334" y="209"/>
+                    <a:pt x="2254" y="227"/>
+                    <a:pt x="2181" y="260"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2113" y="107"/>
+                    <a:pt x="1959" y="0"/>
+                    <a:pt x="1780" y="0"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1660" y="0"/>
+                    <a:pt x="1551" y="49"/>
+                    <a:pt x="1471" y="127"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1378" y="52"/>
+                    <a:pt x="1260" y="8"/>
+                    <a:pt x="1131" y="8"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="936" y="8"/>
+                    <a:pt x="765" y="110"/>
+                    <a:pt x="668" y="264"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="598" y="205"/>
+                    <a:pt x="507" y="170"/>
+                    <a:pt x="408" y="170"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="183" y="170"/>
+                    <a:pt x="0" y="352"/>
+                    <a:pt x="0" y="577"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="0" y="716"/>
+                    <a:pt x="70" y="839"/>
+                    <a:pt x="177" y="912"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="140" y="984"/>
+                    <a:pt x="119" y="1066"/>
+                    <a:pt x="119" y="1153"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="119" y="1444"/>
+                    <a:pt x="356" y="1680"/>
+                    <a:pt x="647" y="1680"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="780" y="1680"/>
+                    <a:pt x="901" y="1631"/>
+                    <a:pt x="994" y="1551"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1090" y="1715"/>
+                    <a:pt x="1268" y="1826"/>
+                    <a:pt x="1473" y="1826"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1635" y="1826"/>
+                    <a:pt x="1780" y="1757"/>
+                    <a:pt x="1882" y="1646"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1972" y="1701"/>
+                    <a:pt x="2078" y="1732"/>
+                    <a:pt x="2191" y="1732"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2491" y="1732"/>
+                    <a:pt x="2740" y="1512"/>
+                    <a:pt x="2785" y="1224"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2912" y="1118"/>
+                    <a:pt x="2992" y="960"/>
+                    <a:pt x="2992" y="783"/>
+                  </a:cubicBezTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr rtl="0"/>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Forma livre 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DC3866-7942-B286-75FB-F4E782A195A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4351307" y="163107"/>
+              <a:ext cx="1023150" cy="635114"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="T0" fmla="*/ 2992 w 2992"/>
+                <a:gd name="T1" fmla="*/ 783 h 1826"/>
+                <a:gd name="T2" fmla="*/ 2418 w 2992"/>
+                <a:gd name="T3" fmla="*/ 209 h 1826"/>
+                <a:gd name="T4" fmla="*/ 2181 w 2992"/>
+                <a:gd name="T5" fmla="*/ 260 h 1826"/>
+                <a:gd name="T6" fmla="*/ 1780 w 2992"/>
+                <a:gd name="T7" fmla="*/ 0 h 1826"/>
+                <a:gd name="T8" fmla="*/ 1471 w 2992"/>
+                <a:gd name="T9" fmla="*/ 127 h 1826"/>
+                <a:gd name="T10" fmla="*/ 1131 w 2992"/>
+                <a:gd name="T11" fmla="*/ 8 h 1826"/>
+                <a:gd name="T12" fmla="*/ 668 w 2992"/>
+                <a:gd name="T13" fmla="*/ 264 h 1826"/>
+                <a:gd name="T14" fmla="*/ 408 w 2992"/>
+                <a:gd name="T15" fmla="*/ 170 h 1826"/>
+                <a:gd name="T16" fmla="*/ 0 w 2992"/>
+                <a:gd name="T17" fmla="*/ 577 h 1826"/>
+                <a:gd name="T18" fmla="*/ 177 w 2992"/>
+                <a:gd name="T19" fmla="*/ 912 h 1826"/>
+                <a:gd name="T20" fmla="*/ 119 w 2992"/>
+                <a:gd name="T21" fmla="*/ 1153 h 1826"/>
+                <a:gd name="T22" fmla="*/ 647 w 2992"/>
+                <a:gd name="T23" fmla="*/ 1680 h 1826"/>
+                <a:gd name="T24" fmla="*/ 994 w 2992"/>
+                <a:gd name="T25" fmla="*/ 1551 h 1826"/>
+                <a:gd name="T26" fmla="*/ 1473 w 2992"/>
+                <a:gd name="T27" fmla="*/ 1826 h 1826"/>
+                <a:gd name="T28" fmla="*/ 1882 w 2992"/>
+                <a:gd name="T29" fmla="*/ 1646 h 1826"/>
+                <a:gd name="T30" fmla="*/ 2191 w 2992"/>
+                <a:gd name="T31" fmla="*/ 1732 h 1826"/>
+                <a:gd name="T32" fmla="*/ 2785 w 2992"/>
+                <a:gd name="T33" fmla="*/ 1224 h 1826"/>
+                <a:gd name="T34" fmla="*/ 2992 w 2992"/>
+                <a:gd name="T35" fmla="*/ 783 h 1826"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="T0" y="T1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T2" y="T3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T4" y="T5"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T6" y="T7"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T8" y="T9"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T10" y="T11"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T12" y="T13"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T14" y="T15"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T16" y="T17"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T18" y="T19"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T20" y="T21"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T22" y="T23"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T24" y="T25"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T26" y="T27"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T28" y="T29"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T30" y="T31"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T32" y="T33"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="T34" y="T35"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="0" t="0" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="2992" h="1826">
+                  <a:moveTo>
+                    <a:pt x="2992" y="783"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2992" y="466"/>
+                    <a:pt x="2735" y="209"/>
+                    <a:pt x="2418" y="209"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2334" y="209"/>
+                    <a:pt x="2254" y="227"/>
+                    <a:pt x="2181" y="260"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2113" y="107"/>
+                    <a:pt x="1959" y="0"/>
+                    <a:pt x="1780" y="0"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1660" y="0"/>
+                    <a:pt x="1551" y="49"/>
+                    <a:pt x="1471" y="127"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1378" y="52"/>
+                    <a:pt x="1260" y="8"/>
+                    <a:pt x="1131" y="8"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="936" y="8"/>
+                    <a:pt x="765" y="110"/>
+                    <a:pt x="668" y="264"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="598" y="205"/>
+                    <a:pt x="507" y="170"/>
+                    <a:pt x="408" y="170"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="183" y="170"/>
+                    <a:pt x="0" y="352"/>
+                    <a:pt x="0" y="577"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="0" y="716"/>
+                    <a:pt x="70" y="839"/>
+                    <a:pt x="177" y="912"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="140" y="984"/>
+                    <a:pt x="119" y="1066"/>
+                    <a:pt x="119" y="1153"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="119" y="1444"/>
+                    <a:pt x="356" y="1680"/>
+                    <a:pt x="647" y="1680"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="780" y="1680"/>
+                    <a:pt x="901" y="1631"/>
+                    <a:pt x="994" y="1551"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1090" y="1715"/>
+                    <a:pt x="1268" y="1826"/>
+                    <a:pt x="1473" y="1826"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1635" y="1826"/>
+                    <a:pt x="1780" y="1757"/>
+                    <a:pt x="1882" y="1646"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="1972" y="1701"/>
+                    <a:pt x="2078" y="1732"/>
+                    <a:pt x="2191" y="1732"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2491" y="1732"/>
+                    <a:pt x="2740" y="1512"/>
+                    <a:pt x="2785" y="1224"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="2912" y="1118"/>
+                    <a:pt x="2992" y="960"/>
+                    <a:pt x="2992" y="783"/>
+                  </a:cubicBezTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr rtl="0"/>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="9" name="Grupo 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03298E8-DA69-75FA-602C-DB9EBA305523}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks noChangeAspect="1"/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4722362" y="381802"/>
+              <a:ext cx="1541733" cy="731132"/>
+              <a:chOff x="2614" y="1286"/>
+              <a:chExt cx="3653" cy="1741"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="AutoForma 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A354B398-498C-E77E-715A-457BC04BDFDE}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="2614" y="1293"/>
+                <a:ext cx="2452" cy="1734"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="18" name="Forma livre 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B017556-481A-8D87-0E03-BD74040B9B81}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="3811" y="1286"/>
+                <a:ext cx="2456" cy="1386"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 1103 w 1103"/>
+                  <a:gd name="T1" fmla="*/ 446 h 621"/>
+                  <a:gd name="T2" fmla="*/ 959 w 1103"/>
+                  <a:gd name="T3" fmla="*/ 270 h 621"/>
+                  <a:gd name="T4" fmla="*/ 353 w 1103"/>
+                  <a:gd name="T5" fmla="*/ 270 h 621"/>
+                  <a:gd name="T6" fmla="*/ 261 w 1103"/>
+                  <a:gd name="T7" fmla="*/ 216 h 621"/>
+                  <a:gd name="T8" fmla="*/ 261 w 1103"/>
+                  <a:gd name="T9" fmla="*/ 216 h 621"/>
+                  <a:gd name="T10" fmla="*/ 204 w 1103"/>
+                  <a:gd name="T11" fmla="*/ 87 h 621"/>
+                  <a:gd name="T12" fmla="*/ 161 w 1103"/>
+                  <a:gd name="T13" fmla="*/ 48 h 621"/>
+                  <a:gd name="T14" fmla="*/ 26 w 1103"/>
+                  <a:gd name="T15" fmla="*/ 4 h 621"/>
+                  <a:gd name="T16" fmla="*/ 3 w 1103"/>
+                  <a:gd name="T17" fmla="*/ 32 h 621"/>
+                  <a:gd name="T18" fmla="*/ 126 w 1103"/>
+                  <a:gd name="T19" fmla="*/ 529 h 621"/>
+                  <a:gd name="T20" fmla="*/ 126 w 1103"/>
+                  <a:gd name="T21" fmla="*/ 530 h 621"/>
+                  <a:gd name="T22" fmla="*/ 176 w 1103"/>
+                  <a:gd name="T23" fmla="*/ 581 h 621"/>
+                  <a:gd name="T24" fmla="*/ 595 w 1103"/>
+                  <a:gd name="T25" fmla="*/ 621 h 621"/>
+                  <a:gd name="T26" fmla="*/ 959 w 1103"/>
+                  <a:gd name="T27" fmla="*/ 601 h 621"/>
+                  <a:gd name="T28" fmla="*/ 1052 w 1103"/>
+                  <a:gd name="T29" fmla="*/ 601 h 621"/>
+                  <a:gd name="T30" fmla="*/ 1103 w 1103"/>
+                  <a:gd name="T31" fmla="*/ 537 h 621"/>
+                  <a:gd name="T32" fmla="*/ 1103 w 1103"/>
+                  <a:gd name="T33" fmla="*/ 464 h 621"/>
+                  <a:gd name="T34" fmla="*/ 1102 w 1103"/>
+                  <a:gd name="T35" fmla="*/ 464 h 621"/>
+                  <a:gd name="T36" fmla="*/ 1103 w 1103"/>
+                  <a:gd name="T37" fmla="*/ 446 h 621"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T18" y="T19"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T20" y="T21"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T22" y="T23"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T24" y="T25"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T26" y="T27"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T28" y="T29"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T30" y="T31"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T32" y="T33"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T34" y="T35"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T36" y="T37"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="1103" h="621">
+                    <a:moveTo>
+                      <a:pt x="1103" y="446"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1103" y="349"/>
+                      <a:pt x="1038" y="270"/>
+                      <a:pt x="959" y="270"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="353" y="270"/>
+                      <a:pt x="353" y="270"/>
+                      <a:pt x="353" y="270"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="285" y="270"/>
+                      <a:pt x="261" y="216"/>
+                      <a:pt x="261" y="216"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="261" y="216"/>
+                      <a:pt x="261" y="216"/>
+                      <a:pt x="261" y="216"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="204" y="87"/>
+                      <a:pt x="204" y="87"/>
+                      <a:pt x="204" y="87"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="196" y="70"/>
+                      <a:pt x="177" y="52"/>
+                      <a:pt x="161" y="48"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="26" y="4"/>
+                      <a:pt x="26" y="4"/>
+                      <a:pt x="26" y="4"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="10" y="0"/>
+                      <a:pt x="0" y="12"/>
+                      <a:pt x="3" y="32"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="126" y="529"/>
+                      <a:pt x="126" y="529"/>
+                      <a:pt x="126" y="529"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="126" y="529"/>
+                      <a:pt x="126" y="530"/>
+                      <a:pt x="126" y="530"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="131" y="559"/>
+                      <a:pt x="151" y="581"/>
+                      <a:pt x="176" y="581"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="595" y="621"/>
+                      <a:pt x="595" y="621"/>
+                      <a:pt x="595" y="621"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="959" y="601"/>
+                      <a:pt x="959" y="601"/>
+                      <a:pt x="959" y="601"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1052" y="601"/>
+                      <a:pt x="1052" y="601"/>
+                      <a:pt x="1052" y="601"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1080" y="601"/>
+                      <a:pt x="1103" y="572"/>
+                      <a:pt x="1103" y="537"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1103" y="464"/>
+                      <a:pt x="1103" y="464"/>
+                      <a:pt x="1103" y="464"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1102" y="464"/>
+                      <a:pt x="1102" y="464"/>
+                      <a:pt x="1102" y="464"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1102" y="458"/>
+                      <a:pt x="1103" y="452"/>
+                      <a:pt x="1103" y="446"/>
+                    </a:cubicBezTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="Forma livre 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A83A037-21F6-8E71-490D-25552682D007}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4151" y="2391"/>
+                <a:ext cx="1357" cy="636"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 243 w 609"/>
+                  <a:gd name="T1" fmla="*/ 0 h 285"/>
+                  <a:gd name="T2" fmla="*/ 170 w 609"/>
+                  <a:gd name="T3" fmla="*/ 39 h 285"/>
+                  <a:gd name="T4" fmla="*/ 16 w 609"/>
+                  <a:gd name="T5" fmla="*/ 246 h 285"/>
+                  <a:gd name="T6" fmla="*/ 29 w 609"/>
+                  <a:gd name="T7" fmla="*/ 285 h 285"/>
+                  <a:gd name="T8" fmla="*/ 57 w 609"/>
+                  <a:gd name="T9" fmla="*/ 285 h 285"/>
+                  <a:gd name="T10" fmla="*/ 218 w 609"/>
+                  <a:gd name="T11" fmla="*/ 258 h 285"/>
+                  <a:gd name="T12" fmla="*/ 588 w 609"/>
+                  <a:gd name="T13" fmla="*/ 27 h 285"/>
+                  <a:gd name="T14" fmla="*/ 583 w 609"/>
+                  <a:gd name="T15" fmla="*/ 0 h 285"/>
+                  <a:gd name="T16" fmla="*/ 243 w 609"/>
+                  <a:gd name="T17" fmla="*/ 0 h 285"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="609" h="285">
+                    <a:moveTo>
+                      <a:pt x="243" y="0"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="219" y="0"/>
+                      <a:pt x="186" y="18"/>
+                      <a:pt x="170" y="39"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="16" y="246"/>
+                      <a:pt x="16" y="246"/>
+                      <a:pt x="16" y="246"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="267"/>
+                      <a:pt x="5" y="285"/>
+                      <a:pt x="29" y="285"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="57" y="285"/>
+                      <a:pt x="57" y="285"/>
+                      <a:pt x="57" y="285"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="81" y="285"/>
+                      <a:pt x="197" y="273"/>
+                      <a:pt x="218" y="258"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="588" y="27"/>
+                      <a:pt x="588" y="27"/>
+                      <a:pt x="588" y="27"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="609" y="12"/>
+                      <a:pt x="606" y="0"/>
+                      <a:pt x="583" y="0"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="243" y="0"/>
+                    </a:lnTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="Forma livre 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD5FE43-95D1-A781-71C8-5795696A809F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5690" y="2114"/>
+                <a:ext cx="577" cy="168"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 29 w 259"/>
+                  <a:gd name="T1" fmla="*/ 0 h 75"/>
+                  <a:gd name="T2" fmla="*/ 0 w 259"/>
+                  <a:gd name="T3" fmla="*/ 36 h 75"/>
+                  <a:gd name="T4" fmla="*/ 0 w 259"/>
+                  <a:gd name="T5" fmla="*/ 39 h 75"/>
+                  <a:gd name="T6" fmla="*/ 29 w 259"/>
+                  <a:gd name="T7" fmla="*/ 75 h 75"/>
+                  <a:gd name="T8" fmla="*/ 259 w 259"/>
+                  <a:gd name="T9" fmla="*/ 75 h 75"/>
+                  <a:gd name="T10" fmla="*/ 245 w 259"/>
+                  <a:gd name="T11" fmla="*/ 0 h 75"/>
+                  <a:gd name="T12" fmla="*/ 29 w 259"/>
+                  <a:gd name="T13" fmla="*/ 0 h 75"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="259" h="75">
+                    <a:moveTo>
+                      <a:pt x="29" y="0"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="13" y="0"/>
+                      <a:pt x="0" y="16"/>
+                      <a:pt x="0" y="36"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="39"/>
+                      <a:pt x="0" y="39"/>
+                      <a:pt x="0" y="39"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="58"/>
+                      <a:pt x="13" y="75"/>
+                      <a:pt x="29" y="75"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="259" y="75"/>
+                      <a:pt x="259" y="75"/>
+                      <a:pt x="259" y="75"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="259" y="48"/>
+                      <a:pt x="254" y="23"/>
+                      <a:pt x="245" y="0"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="29" y="0"/>
+                    </a:lnTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="Oval 51">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D246E2-97B4-1323-03ED-B89B221CCAEA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5335" y="2114"/>
+                <a:ext cx="154" cy="161"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="Oval 52">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42ECDF45-9EE6-F40E-918F-44969D4C66A9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5028" y="2114"/>
+                <a:ext cx="154" cy="161"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="23" name="Oval 53">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFCE066-8A51-35A5-B57B-F907C3973866}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4721" y="2114"/>
+                <a:ext cx="152" cy="161"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="en-US"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr rtl="0"/>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="10" name="Grupo 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7CF7A3-18FF-D01A-B2C6-428AF964343C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks noChangeAspect="1"/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3631498" y="495254"/>
+              <a:ext cx="1340825" cy="533448"/>
+              <a:chOff x="1076" y="198"/>
+              <a:chExt cx="688" cy="273"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="AutoForma 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F8C63A-73D6-2DB7-63B6-0C394A60E33D}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1076" y="198"/>
+                <a:ext cx="428" cy="273"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="12" name="Forma livre 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18F5216-9DE5-2891-36C1-EC0203EF8D96}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noEditPoints="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1336" y="198"/>
+                <a:ext cx="428" cy="243"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 1076 w 1092"/>
+                  <a:gd name="T1" fmla="*/ 329 h 614"/>
+                  <a:gd name="T2" fmla="*/ 1032 w 1092"/>
+                  <a:gd name="T3" fmla="*/ 264 h 614"/>
+                  <a:gd name="T4" fmla="*/ 967 w 1092"/>
+                  <a:gd name="T5" fmla="*/ 220 h 614"/>
+                  <a:gd name="T6" fmla="*/ 887 w 1092"/>
+                  <a:gd name="T7" fmla="*/ 204 h 614"/>
+                  <a:gd name="T8" fmla="*/ 867 w 1092"/>
+                  <a:gd name="T9" fmla="*/ 204 h 614"/>
+                  <a:gd name="T10" fmla="*/ 693 w 1092"/>
+                  <a:gd name="T11" fmla="*/ 29 h 614"/>
+                  <a:gd name="T12" fmla="*/ 659 w 1092"/>
+                  <a:gd name="T13" fmla="*/ 7 h 614"/>
+                  <a:gd name="T14" fmla="*/ 620 w 1092"/>
+                  <a:gd name="T15" fmla="*/ 0 h 614"/>
+                  <a:gd name="T16" fmla="*/ 136 w 1092"/>
+                  <a:gd name="T17" fmla="*/ 0 h 614"/>
+                  <a:gd name="T18" fmla="*/ 136 w 1092"/>
+                  <a:gd name="T19" fmla="*/ 68 h 614"/>
+                  <a:gd name="T20" fmla="*/ 152 w 1092"/>
+                  <a:gd name="T21" fmla="*/ 68 h 614"/>
+                  <a:gd name="T22" fmla="*/ 15 w 1092"/>
+                  <a:gd name="T23" fmla="*/ 368 h 614"/>
+                  <a:gd name="T24" fmla="*/ 0 w 1092"/>
+                  <a:gd name="T25" fmla="*/ 439 h 614"/>
+                  <a:gd name="T26" fmla="*/ 0 w 1092"/>
+                  <a:gd name="T27" fmla="*/ 477 h 614"/>
+                  <a:gd name="T28" fmla="*/ 7 w 1092"/>
+                  <a:gd name="T29" fmla="*/ 520 h 614"/>
+                  <a:gd name="T30" fmla="*/ 21 w 1092"/>
+                  <a:gd name="T31" fmla="*/ 468 h 614"/>
+                  <a:gd name="T32" fmla="*/ 64 w 1092"/>
+                  <a:gd name="T33" fmla="*/ 404 h 614"/>
+                  <a:gd name="T34" fmla="*/ 127 w 1092"/>
+                  <a:gd name="T35" fmla="*/ 362 h 614"/>
+                  <a:gd name="T36" fmla="*/ 205 w 1092"/>
+                  <a:gd name="T37" fmla="*/ 346 h 614"/>
+                  <a:gd name="T38" fmla="*/ 283 w 1092"/>
+                  <a:gd name="T39" fmla="*/ 362 h 614"/>
+                  <a:gd name="T40" fmla="*/ 346 w 1092"/>
+                  <a:gd name="T41" fmla="*/ 404 h 614"/>
+                  <a:gd name="T42" fmla="*/ 389 w 1092"/>
+                  <a:gd name="T43" fmla="*/ 468 h 614"/>
+                  <a:gd name="T44" fmla="*/ 404 w 1092"/>
+                  <a:gd name="T45" fmla="*/ 545 h 614"/>
+                  <a:gd name="T46" fmla="*/ 392 w 1092"/>
+                  <a:gd name="T47" fmla="*/ 614 h 614"/>
+                  <a:gd name="T48" fmla="*/ 631 w 1092"/>
+                  <a:gd name="T49" fmla="*/ 614 h 614"/>
+                  <a:gd name="T50" fmla="*/ 619 w 1092"/>
+                  <a:gd name="T51" fmla="*/ 545 h 614"/>
+                  <a:gd name="T52" fmla="*/ 635 w 1092"/>
+                  <a:gd name="T53" fmla="*/ 468 h 614"/>
+                  <a:gd name="T54" fmla="*/ 678 w 1092"/>
+                  <a:gd name="T55" fmla="*/ 404 h 614"/>
+                  <a:gd name="T56" fmla="*/ 741 w 1092"/>
+                  <a:gd name="T57" fmla="*/ 362 h 614"/>
+                  <a:gd name="T58" fmla="*/ 819 w 1092"/>
+                  <a:gd name="T59" fmla="*/ 346 h 614"/>
+                  <a:gd name="T60" fmla="*/ 897 w 1092"/>
+                  <a:gd name="T61" fmla="*/ 362 h 614"/>
+                  <a:gd name="T62" fmla="*/ 960 w 1092"/>
+                  <a:gd name="T63" fmla="*/ 404 h 614"/>
+                  <a:gd name="T64" fmla="*/ 1003 w 1092"/>
+                  <a:gd name="T65" fmla="*/ 468 h 614"/>
+                  <a:gd name="T66" fmla="*/ 1018 w 1092"/>
+                  <a:gd name="T67" fmla="*/ 545 h 614"/>
+                  <a:gd name="T68" fmla="*/ 1006 w 1092"/>
+                  <a:gd name="T69" fmla="*/ 614 h 614"/>
+                  <a:gd name="T70" fmla="*/ 1024 w 1092"/>
+                  <a:gd name="T71" fmla="*/ 614 h 614"/>
+                  <a:gd name="T72" fmla="*/ 1050 w 1092"/>
+                  <a:gd name="T73" fmla="*/ 608 h 614"/>
+                  <a:gd name="T74" fmla="*/ 1072 w 1092"/>
+                  <a:gd name="T75" fmla="*/ 594 h 614"/>
+                  <a:gd name="T76" fmla="*/ 1087 w 1092"/>
+                  <a:gd name="T77" fmla="*/ 572 h 614"/>
+                  <a:gd name="T78" fmla="*/ 1092 w 1092"/>
+                  <a:gd name="T79" fmla="*/ 545 h 614"/>
+                  <a:gd name="T80" fmla="*/ 1092 w 1092"/>
+                  <a:gd name="T81" fmla="*/ 409 h 614"/>
+                  <a:gd name="T82" fmla="*/ 1076 w 1092"/>
+                  <a:gd name="T83" fmla="*/ 329 h 614"/>
+                  <a:gd name="T84" fmla="*/ 409 w 1092"/>
+                  <a:gd name="T85" fmla="*/ 204 h 614"/>
+                  <a:gd name="T86" fmla="*/ 165 w 1092"/>
+                  <a:gd name="T87" fmla="*/ 204 h 614"/>
+                  <a:gd name="T88" fmla="*/ 218 w 1092"/>
+                  <a:gd name="T89" fmla="*/ 87 h 614"/>
+                  <a:gd name="T90" fmla="*/ 231 w 1092"/>
+                  <a:gd name="T91" fmla="*/ 73 h 614"/>
+                  <a:gd name="T92" fmla="*/ 249 w 1092"/>
+                  <a:gd name="T93" fmla="*/ 68 h 614"/>
+                  <a:gd name="T94" fmla="*/ 409 w 1092"/>
+                  <a:gd name="T95" fmla="*/ 68 h 614"/>
+                  <a:gd name="T96" fmla="*/ 409 w 1092"/>
+                  <a:gd name="T97" fmla="*/ 204 h 614"/>
+                  <a:gd name="T98" fmla="*/ 478 w 1092"/>
+                  <a:gd name="T99" fmla="*/ 204 h 614"/>
+                  <a:gd name="T100" fmla="*/ 478 w 1092"/>
+                  <a:gd name="T101" fmla="*/ 68 h 614"/>
+                  <a:gd name="T102" fmla="*/ 620 w 1092"/>
+                  <a:gd name="T103" fmla="*/ 68 h 614"/>
+                  <a:gd name="T104" fmla="*/ 644 w 1092"/>
+                  <a:gd name="T105" fmla="*/ 78 h 614"/>
+                  <a:gd name="T106" fmla="*/ 770 w 1092"/>
+                  <a:gd name="T107" fmla="*/ 204 h 614"/>
+                  <a:gd name="T108" fmla="*/ 478 w 1092"/>
+                  <a:gd name="T109" fmla="*/ 204 h 614"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T18" y="T19"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T20" y="T21"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T22" y="T23"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T24" y="T25"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T26" y="T27"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T28" y="T29"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T30" y="T31"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T32" y="T33"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T34" y="T35"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T36" y="T37"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T38" y="T39"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T40" y="T41"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T42" y="T43"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T44" y="T45"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T46" y="T47"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T48" y="T49"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T50" y="T51"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T52" y="T53"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T54" y="T55"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T56" y="T57"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T58" y="T59"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T60" y="T61"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T62" y="T63"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T64" y="T65"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T66" y="T67"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T68" y="T69"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T70" y="T71"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T72" y="T73"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T74" y="T75"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T76" y="T77"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T78" y="T79"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T80" y="T81"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T82" y="T83"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T84" y="T85"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T86" y="T87"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T88" y="T89"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T90" y="T91"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T92" y="T93"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T94" y="T95"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T96" y="T97"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T98" y="T99"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T100" y="T101"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T102" y="T103"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T104" y="T105"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T106" y="T107"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T108" y="T109"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="1092" h="614">
+                    <a:moveTo>
+                      <a:pt x="1076" y="329"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1065" y="304"/>
+                      <a:pt x="1051" y="282"/>
+                      <a:pt x="1032" y="264"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1014" y="246"/>
+                      <a:pt x="992" y="231"/>
+                      <a:pt x="967" y="220"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="942" y="210"/>
+                      <a:pt x="916" y="204"/>
+                      <a:pt x="887" y="204"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="867" y="204"/>
+                      <a:pt x="867" y="204"/>
+                      <a:pt x="867" y="204"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="693" y="29"/>
+                      <a:pt x="693" y="29"/>
+                      <a:pt x="693" y="29"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="683" y="20"/>
+                      <a:pt x="672" y="12"/>
+                      <a:pt x="659" y="7"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="647" y="2"/>
+                      <a:pt x="634" y="0"/>
+                      <a:pt x="620" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="136" y="0"/>
+                      <a:pt x="136" y="0"/>
+                      <a:pt x="136" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="136" y="68"/>
+                      <a:pt x="136" y="68"/>
+                      <a:pt x="136" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="152" y="68"/>
+                      <a:pt x="152" y="68"/>
+                      <a:pt x="152" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="15" y="368"/>
+                      <a:pt x="15" y="368"/>
+                      <a:pt x="15" y="368"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="5" y="391"/>
+                      <a:pt x="0" y="414"/>
+                      <a:pt x="0" y="439"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="477"/>
+                      <a:pt x="0" y="477"/>
+                      <a:pt x="0" y="477"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="492"/>
+                      <a:pt x="2" y="506"/>
+                      <a:pt x="7" y="520"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="9" y="502"/>
+                      <a:pt x="14" y="484"/>
+                      <a:pt x="21" y="468"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="31" y="444"/>
+                      <a:pt x="46" y="423"/>
+                      <a:pt x="64" y="404"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="82" y="386"/>
+                      <a:pt x="103" y="372"/>
+                      <a:pt x="127" y="362"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="151" y="351"/>
+                      <a:pt x="177" y="346"/>
+                      <a:pt x="205" y="346"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="233" y="346"/>
+                      <a:pt x="259" y="351"/>
+                      <a:pt x="283" y="362"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="307" y="372"/>
+                      <a:pt x="328" y="386"/>
+                      <a:pt x="346" y="404"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="364" y="423"/>
+                      <a:pt x="378" y="444"/>
+                      <a:pt x="389" y="468"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="399" y="491"/>
+                      <a:pt x="404" y="517"/>
+                      <a:pt x="404" y="545"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="404" y="570"/>
+                      <a:pt x="400" y="593"/>
+                      <a:pt x="392" y="614"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="631" y="614"/>
+                      <a:pt x="631" y="614"/>
+                      <a:pt x="631" y="614"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="624" y="593"/>
+                      <a:pt x="619" y="570"/>
+                      <a:pt x="619" y="545"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="619" y="517"/>
+                      <a:pt x="625" y="491"/>
+                      <a:pt x="635" y="468"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="645" y="444"/>
+                      <a:pt x="660" y="423"/>
+                      <a:pt x="678" y="404"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="696" y="386"/>
+                      <a:pt x="717" y="372"/>
+                      <a:pt x="741" y="362"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="765" y="351"/>
+                      <a:pt x="791" y="346"/>
+                      <a:pt x="819" y="346"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="847" y="346"/>
+                      <a:pt x="873" y="351"/>
+                      <a:pt x="897" y="362"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="921" y="372"/>
+                      <a:pt x="942" y="386"/>
+                      <a:pt x="960" y="404"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="978" y="423"/>
+                      <a:pt x="992" y="444"/>
+                      <a:pt x="1003" y="468"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1013" y="491"/>
+                      <a:pt x="1018" y="517"/>
+                      <a:pt x="1018" y="545"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1018" y="570"/>
+                      <a:pt x="1014" y="593"/>
+                      <a:pt x="1006" y="614"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1024" y="614"/>
+                      <a:pt x="1024" y="614"/>
+                      <a:pt x="1024" y="614"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1033" y="614"/>
+                      <a:pt x="1042" y="612"/>
+                      <a:pt x="1050" y="608"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1058" y="605"/>
+                      <a:pt x="1066" y="600"/>
+                      <a:pt x="1072" y="594"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1078" y="588"/>
+                      <a:pt x="1083" y="580"/>
+                      <a:pt x="1087" y="572"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1090" y="564"/>
+                      <a:pt x="1092" y="555"/>
+                      <a:pt x="1092" y="545"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1092" y="409"/>
+                      <a:pt x="1092" y="409"/>
+                      <a:pt x="1092" y="409"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1092" y="381"/>
+                      <a:pt x="1087" y="354"/>
+                      <a:pt x="1076" y="329"/>
+                    </a:cubicBezTo>
+                    <a:moveTo>
+                      <a:pt x="409" y="204"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="165" y="204"/>
+                      <a:pt x="165" y="204"/>
+                      <a:pt x="165" y="204"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="218" y="87"/>
+                      <a:pt x="218" y="87"/>
+                      <a:pt x="218" y="87"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="220" y="81"/>
+                      <a:pt x="225" y="77"/>
+                      <a:pt x="231" y="73"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="236" y="70"/>
+                      <a:pt x="243" y="68"/>
+                      <a:pt x="249" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="409" y="68"/>
+                      <a:pt x="409" y="68"/>
+                      <a:pt x="409" y="68"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="409" y="204"/>
+                    </a:lnTo>
+                    <a:close/>
+                    <a:moveTo>
+                      <a:pt x="478" y="204"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="478" y="68"/>
+                      <a:pt x="478" y="68"/>
+                      <a:pt x="478" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="620" y="68"/>
+                      <a:pt x="620" y="68"/>
+                      <a:pt x="620" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="629" y="68"/>
+                      <a:pt x="637" y="71"/>
+                      <a:pt x="644" y="78"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="770" y="204"/>
+                      <a:pt x="770" y="204"/>
+                      <a:pt x="770" y="204"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="478" y="204"/>
+                    </a:lnTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="13" name="Forma livre 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83889F2-F999-957C-8F2E-1444A57F462F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noEditPoints="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1360" y="357"/>
+                <a:ext cx="113" cy="114"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 245 w 288"/>
+                  <a:gd name="T1" fmla="*/ 42 h 287"/>
+                  <a:gd name="T2" fmla="*/ 200 w 288"/>
+                  <a:gd name="T3" fmla="*/ 11 h 287"/>
+                  <a:gd name="T4" fmla="*/ 144 w 288"/>
+                  <a:gd name="T5" fmla="*/ 0 h 287"/>
+                  <a:gd name="T6" fmla="*/ 88 w 288"/>
+                  <a:gd name="T7" fmla="*/ 11 h 287"/>
+                  <a:gd name="T8" fmla="*/ 42 w 288"/>
+                  <a:gd name="T9" fmla="*/ 42 h 287"/>
+                  <a:gd name="T10" fmla="*/ 11 w 288"/>
+                  <a:gd name="T11" fmla="*/ 87 h 287"/>
+                  <a:gd name="T12" fmla="*/ 0 w 288"/>
+                  <a:gd name="T13" fmla="*/ 143 h 287"/>
+                  <a:gd name="T14" fmla="*/ 9 w 288"/>
+                  <a:gd name="T15" fmla="*/ 194 h 287"/>
+                  <a:gd name="T16" fmla="*/ 11 w 288"/>
+                  <a:gd name="T17" fmla="*/ 200 h 287"/>
+                  <a:gd name="T18" fmla="*/ 42 w 288"/>
+                  <a:gd name="T19" fmla="*/ 245 h 287"/>
+                  <a:gd name="T20" fmla="*/ 88 w 288"/>
+                  <a:gd name="T21" fmla="*/ 276 h 287"/>
+                  <a:gd name="T22" fmla="*/ 144 w 288"/>
+                  <a:gd name="T23" fmla="*/ 287 h 287"/>
+                  <a:gd name="T24" fmla="*/ 200 w 288"/>
+                  <a:gd name="T25" fmla="*/ 276 h 287"/>
+                  <a:gd name="T26" fmla="*/ 245 w 288"/>
+                  <a:gd name="T27" fmla="*/ 245 h 287"/>
+                  <a:gd name="T28" fmla="*/ 270 w 288"/>
+                  <a:gd name="T29" fmla="*/ 212 h 287"/>
+                  <a:gd name="T30" fmla="*/ 276 w 288"/>
+                  <a:gd name="T31" fmla="*/ 200 h 287"/>
+                  <a:gd name="T32" fmla="*/ 288 w 288"/>
+                  <a:gd name="T33" fmla="*/ 143 h 287"/>
+                  <a:gd name="T34" fmla="*/ 276 w 288"/>
+                  <a:gd name="T35" fmla="*/ 87 h 287"/>
+                  <a:gd name="T36" fmla="*/ 245 w 288"/>
+                  <a:gd name="T37" fmla="*/ 42 h 287"/>
+                  <a:gd name="T38" fmla="*/ 81 w 288"/>
+                  <a:gd name="T39" fmla="*/ 117 h 287"/>
+                  <a:gd name="T40" fmla="*/ 96 w 288"/>
+                  <a:gd name="T41" fmla="*/ 95 h 287"/>
+                  <a:gd name="T42" fmla="*/ 117 w 288"/>
+                  <a:gd name="T43" fmla="*/ 81 h 287"/>
+                  <a:gd name="T44" fmla="*/ 144 w 288"/>
+                  <a:gd name="T45" fmla="*/ 75 h 287"/>
+                  <a:gd name="T46" fmla="*/ 170 w 288"/>
+                  <a:gd name="T47" fmla="*/ 81 h 287"/>
+                  <a:gd name="T48" fmla="*/ 192 w 288"/>
+                  <a:gd name="T49" fmla="*/ 95 h 287"/>
+                  <a:gd name="T50" fmla="*/ 207 w 288"/>
+                  <a:gd name="T51" fmla="*/ 117 h 287"/>
+                  <a:gd name="T52" fmla="*/ 212 w 288"/>
+                  <a:gd name="T53" fmla="*/ 143 h 287"/>
+                  <a:gd name="T54" fmla="*/ 207 w 288"/>
+                  <a:gd name="T55" fmla="*/ 170 h 287"/>
+                  <a:gd name="T56" fmla="*/ 192 w 288"/>
+                  <a:gd name="T57" fmla="*/ 192 h 287"/>
+                  <a:gd name="T58" fmla="*/ 170 w 288"/>
+                  <a:gd name="T59" fmla="*/ 206 h 287"/>
+                  <a:gd name="T60" fmla="*/ 144 w 288"/>
+                  <a:gd name="T61" fmla="*/ 212 h 287"/>
+                  <a:gd name="T62" fmla="*/ 117 w 288"/>
+                  <a:gd name="T63" fmla="*/ 206 h 287"/>
+                  <a:gd name="T64" fmla="*/ 96 w 288"/>
+                  <a:gd name="T65" fmla="*/ 192 h 287"/>
+                  <a:gd name="T66" fmla="*/ 81 w 288"/>
+                  <a:gd name="T67" fmla="*/ 170 h 287"/>
+                  <a:gd name="T68" fmla="*/ 75 w 288"/>
+                  <a:gd name="T69" fmla="*/ 143 h 287"/>
+                  <a:gd name="T70" fmla="*/ 81 w 288"/>
+                  <a:gd name="T71" fmla="*/ 117 h 287"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T18" y="T19"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T20" y="T21"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T22" y="T23"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T24" y="T25"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T26" y="T27"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T28" y="T29"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T30" y="T31"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T32" y="T33"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T34" y="T35"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T36" y="T37"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T38" y="T39"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T40" y="T41"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T42" y="T43"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T44" y="T45"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T46" y="T47"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T48" y="T49"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T50" y="T51"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T52" y="T53"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T54" y="T55"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T56" y="T57"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T58" y="T59"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T60" y="T61"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T62" y="T63"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T64" y="T65"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T66" y="T67"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T68" y="T69"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T70" y="T71"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="288" h="287">
+                    <a:moveTo>
+                      <a:pt x="245" y="42"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="232" y="29"/>
+                      <a:pt x="217" y="18"/>
+                      <a:pt x="200" y="11"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="183" y="3"/>
+                      <a:pt x="164" y="0"/>
+                      <a:pt x="144" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="124" y="0"/>
+                      <a:pt x="105" y="3"/>
+                      <a:pt x="88" y="11"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="70" y="18"/>
+                      <a:pt x="55" y="29"/>
+                      <a:pt x="42" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="29" y="55"/>
+                      <a:pt x="19" y="70"/>
+                      <a:pt x="11" y="87"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="4" y="105"/>
+                      <a:pt x="0" y="123"/>
+                      <a:pt x="0" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="162"/>
+                      <a:pt x="3" y="178"/>
+                      <a:pt x="9" y="194"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="10" y="196"/>
+                      <a:pt x="10" y="198"/>
+                      <a:pt x="11" y="200"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="19" y="217"/>
+                      <a:pt x="29" y="232"/>
+                      <a:pt x="42" y="245"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="55" y="258"/>
+                      <a:pt x="70" y="269"/>
+                      <a:pt x="88" y="276"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="105" y="284"/>
+                      <a:pt x="124" y="287"/>
+                      <a:pt x="144" y="287"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="164" y="287"/>
+                      <a:pt x="183" y="284"/>
+                      <a:pt x="200" y="276"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="217" y="269"/>
+                      <a:pt x="232" y="258"/>
+                      <a:pt x="245" y="245"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="255" y="235"/>
+                      <a:pt x="263" y="224"/>
+                      <a:pt x="270" y="212"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="272" y="208"/>
+                      <a:pt x="274" y="204"/>
+                      <a:pt x="276" y="200"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="284" y="182"/>
+                      <a:pt x="288" y="164"/>
+                      <a:pt x="288" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="288" y="123"/>
+                      <a:pt x="284" y="105"/>
+                      <a:pt x="276" y="87"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="269" y="70"/>
+                      <a:pt x="259" y="55"/>
+                      <a:pt x="245" y="42"/>
+                    </a:cubicBezTo>
+                    <a:moveTo>
+                      <a:pt x="81" y="117"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="84" y="109"/>
+                      <a:pt x="89" y="101"/>
+                      <a:pt x="96" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="102" y="89"/>
+                      <a:pt x="109" y="84"/>
+                      <a:pt x="117" y="81"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="125" y="77"/>
+                      <a:pt x="134" y="75"/>
+                      <a:pt x="144" y="75"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="153" y="75"/>
+                      <a:pt x="162" y="77"/>
+                      <a:pt x="170" y="81"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="179" y="84"/>
+                      <a:pt x="186" y="89"/>
+                      <a:pt x="192" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="198" y="101"/>
+                      <a:pt x="203" y="109"/>
+                      <a:pt x="207" y="117"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="210" y="125"/>
+                      <a:pt x="212" y="134"/>
+                      <a:pt x="212" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="212" y="153"/>
+                      <a:pt x="210" y="162"/>
+                      <a:pt x="207" y="170"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="203" y="178"/>
+                      <a:pt x="198" y="186"/>
+                      <a:pt x="192" y="192"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="186" y="198"/>
+                      <a:pt x="179" y="203"/>
+                      <a:pt x="170" y="206"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="162" y="210"/>
+                      <a:pt x="153" y="212"/>
+                      <a:pt x="144" y="212"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="134" y="212"/>
+                      <a:pt x="125" y="210"/>
+                      <a:pt x="117" y="206"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="109" y="203"/>
+                      <a:pt x="102" y="198"/>
+                      <a:pt x="96" y="192"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="89" y="186"/>
+                      <a:pt x="84" y="178"/>
+                      <a:pt x="81" y="170"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="77" y="162"/>
+                      <a:pt x="75" y="153"/>
+                      <a:pt x="75" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="75" y="134"/>
+                      <a:pt x="77" y="125"/>
+                      <a:pt x="81" y="117"/>
+                    </a:cubicBezTo>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="Forma livre 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDB59E9-14A6-1107-0271-F568A7E47457}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noEditPoints="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1601" y="357"/>
+                <a:ext cx="113" cy="114"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 277 w 288"/>
+                  <a:gd name="T1" fmla="*/ 87 h 287"/>
+                  <a:gd name="T2" fmla="*/ 246 w 288"/>
+                  <a:gd name="T3" fmla="*/ 42 h 287"/>
+                  <a:gd name="T4" fmla="*/ 200 w 288"/>
+                  <a:gd name="T5" fmla="*/ 11 h 287"/>
+                  <a:gd name="T6" fmla="*/ 144 w 288"/>
+                  <a:gd name="T7" fmla="*/ 0 h 287"/>
+                  <a:gd name="T8" fmla="*/ 88 w 288"/>
+                  <a:gd name="T9" fmla="*/ 11 h 287"/>
+                  <a:gd name="T10" fmla="*/ 42 w 288"/>
+                  <a:gd name="T11" fmla="*/ 42 h 287"/>
+                  <a:gd name="T12" fmla="*/ 11 w 288"/>
+                  <a:gd name="T13" fmla="*/ 87 h 287"/>
+                  <a:gd name="T14" fmla="*/ 0 w 288"/>
+                  <a:gd name="T15" fmla="*/ 143 h 287"/>
+                  <a:gd name="T16" fmla="*/ 11 w 288"/>
+                  <a:gd name="T17" fmla="*/ 200 h 287"/>
+                  <a:gd name="T18" fmla="*/ 18 w 288"/>
+                  <a:gd name="T19" fmla="*/ 212 h 287"/>
+                  <a:gd name="T20" fmla="*/ 42 w 288"/>
+                  <a:gd name="T21" fmla="*/ 245 h 287"/>
+                  <a:gd name="T22" fmla="*/ 88 w 288"/>
+                  <a:gd name="T23" fmla="*/ 276 h 287"/>
+                  <a:gd name="T24" fmla="*/ 144 w 288"/>
+                  <a:gd name="T25" fmla="*/ 287 h 287"/>
+                  <a:gd name="T26" fmla="*/ 200 w 288"/>
+                  <a:gd name="T27" fmla="*/ 276 h 287"/>
+                  <a:gd name="T28" fmla="*/ 246 w 288"/>
+                  <a:gd name="T29" fmla="*/ 245 h 287"/>
+                  <a:gd name="T30" fmla="*/ 270 w 288"/>
+                  <a:gd name="T31" fmla="*/ 212 h 287"/>
+                  <a:gd name="T32" fmla="*/ 277 w 288"/>
+                  <a:gd name="T33" fmla="*/ 200 h 287"/>
+                  <a:gd name="T34" fmla="*/ 288 w 288"/>
+                  <a:gd name="T35" fmla="*/ 143 h 287"/>
+                  <a:gd name="T36" fmla="*/ 277 w 288"/>
+                  <a:gd name="T37" fmla="*/ 87 h 287"/>
+                  <a:gd name="T38" fmla="*/ 81 w 288"/>
+                  <a:gd name="T39" fmla="*/ 117 h 287"/>
+                  <a:gd name="T40" fmla="*/ 96 w 288"/>
+                  <a:gd name="T41" fmla="*/ 95 h 287"/>
+                  <a:gd name="T42" fmla="*/ 117 w 288"/>
+                  <a:gd name="T43" fmla="*/ 81 h 287"/>
+                  <a:gd name="T44" fmla="*/ 144 w 288"/>
+                  <a:gd name="T45" fmla="*/ 75 h 287"/>
+                  <a:gd name="T46" fmla="*/ 171 w 288"/>
+                  <a:gd name="T47" fmla="*/ 81 h 287"/>
+                  <a:gd name="T48" fmla="*/ 192 w 288"/>
+                  <a:gd name="T49" fmla="*/ 95 h 287"/>
+                  <a:gd name="T50" fmla="*/ 207 w 288"/>
+                  <a:gd name="T51" fmla="*/ 117 h 287"/>
+                  <a:gd name="T52" fmla="*/ 212 w 288"/>
+                  <a:gd name="T53" fmla="*/ 143 h 287"/>
+                  <a:gd name="T54" fmla="*/ 207 w 288"/>
+                  <a:gd name="T55" fmla="*/ 170 h 287"/>
+                  <a:gd name="T56" fmla="*/ 192 w 288"/>
+                  <a:gd name="T57" fmla="*/ 192 h 287"/>
+                  <a:gd name="T58" fmla="*/ 171 w 288"/>
+                  <a:gd name="T59" fmla="*/ 206 h 287"/>
+                  <a:gd name="T60" fmla="*/ 144 w 288"/>
+                  <a:gd name="T61" fmla="*/ 212 h 287"/>
+                  <a:gd name="T62" fmla="*/ 117 w 288"/>
+                  <a:gd name="T63" fmla="*/ 206 h 287"/>
+                  <a:gd name="T64" fmla="*/ 96 w 288"/>
+                  <a:gd name="T65" fmla="*/ 192 h 287"/>
+                  <a:gd name="T66" fmla="*/ 81 w 288"/>
+                  <a:gd name="T67" fmla="*/ 170 h 287"/>
+                  <a:gd name="T68" fmla="*/ 76 w 288"/>
+                  <a:gd name="T69" fmla="*/ 143 h 287"/>
+                  <a:gd name="T70" fmla="*/ 81 w 288"/>
+                  <a:gd name="T71" fmla="*/ 117 h 287"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T18" y="T19"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T20" y="T21"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T22" y="T23"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T24" y="T25"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T26" y="T27"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T28" y="T29"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T30" y="T31"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T32" y="T33"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T34" y="T35"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T36" y="T37"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T38" y="T39"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T40" y="T41"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T42" y="T43"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T44" y="T45"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T46" y="T47"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T48" y="T49"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T50" y="T51"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T52" y="T53"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T54" y="T55"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T56" y="T57"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T58" y="T59"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T60" y="T61"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T62" y="T63"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T64" y="T65"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T66" y="T67"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T68" y="T69"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T70" y="T71"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="288" h="287">
+                    <a:moveTo>
+                      <a:pt x="277" y="87"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="269" y="70"/>
+                      <a:pt x="259" y="55"/>
+                      <a:pt x="246" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="233" y="29"/>
+                      <a:pt x="217" y="18"/>
+                      <a:pt x="200" y="11"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="183" y="3"/>
+                      <a:pt x="164" y="0"/>
+                      <a:pt x="144" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="124" y="0"/>
+                      <a:pt x="105" y="3"/>
+                      <a:pt x="88" y="11"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="70" y="18"/>
+                      <a:pt x="55" y="29"/>
+                      <a:pt x="42" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="29" y="55"/>
+                      <a:pt x="19" y="70"/>
+                      <a:pt x="11" y="87"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="4" y="105"/>
+                      <a:pt x="0" y="123"/>
+                      <a:pt x="0" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="164"/>
+                      <a:pt x="4" y="182"/>
+                      <a:pt x="11" y="200"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="13" y="204"/>
+                      <a:pt x="16" y="208"/>
+                      <a:pt x="18" y="212"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="25" y="224"/>
+                      <a:pt x="32" y="235"/>
+                      <a:pt x="42" y="245"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="55" y="258"/>
+                      <a:pt x="70" y="269"/>
+                      <a:pt x="88" y="276"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="105" y="284"/>
+                      <a:pt x="124" y="287"/>
+                      <a:pt x="144" y="287"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="164" y="287"/>
+                      <a:pt x="183" y="284"/>
+                      <a:pt x="200" y="276"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="217" y="269"/>
+                      <a:pt x="233" y="258"/>
+                      <a:pt x="246" y="245"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="255" y="235"/>
+                      <a:pt x="263" y="224"/>
+                      <a:pt x="270" y="212"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="272" y="208"/>
+                      <a:pt x="275" y="204"/>
+                      <a:pt x="277" y="200"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="284" y="182"/>
+                      <a:pt x="288" y="164"/>
+                      <a:pt x="288" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="288" y="123"/>
+                      <a:pt x="284" y="105"/>
+                      <a:pt x="277" y="87"/>
+                    </a:cubicBezTo>
+                    <a:moveTo>
+                      <a:pt x="81" y="117"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="85" y="109"/>
+                      <a:pt x="89" y="101"/>
+                      <a:pt x="96" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="102" y="89"/>
+                      <a:pt x="109" y="84"/>
+                      <a:pt x="117" y="81"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="125" y="77"/>
+                      <a:pt x="134" y="75"/>
+                      <a:pt x="144" y="75"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="154" y="75"/>
+                      <a:pt x="162" y="77"/>
+                      <a:pt x="171" y="81"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="179" y="84"/>
+                      <a:pt x="186" y="89"/>
+                      <a:pt x="192" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="198" y="101"/>
+                      <a:pt x="203" y="109"/>
+                      <a:pt x="207" y="117"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="210" y="125"/>
+                      <a:pt x="212" y="134"/>
+                      <a:pt x="212" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="212" y="153"/>
+                      <a:pt x="210" y="162"/>
+                      <a:pt x="207" y="170"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="203" y="178"/>
+                      <a:pt x="198" y="186"/>
+                      <a:pt x="192" y="192"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="186" y="198"/>
+                      <a:pt x="179" y="203"/>
+                      <a:pt x="171" y="206"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="162" y="210"/>
+                      <a:pt x="154" y="212"/>
+                      <a:pt x="144" y="212"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="134" y="212"/>
+                      <a:pt x="125" y="210"/>
+                      <a:pt x="117" y="206"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="109" y="203"/>
+                      <a:pt x="102" y="198"/>
+                      <a:pt x="96" y="192"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="89" y="186"/>
+                      <a:pt x="85" y="178"/>
+                      <a:pt x="81" y="170"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="77" y="162"/>
+                      <a:pt x="76" y="153"/>
+                      <a:pt x="76" y="143"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="76" y="134"/>
+                      <a:pt x="77" y="125"/>
+                      <a:pt x="81" y="117"/>
+                    </a:cubicBezTo>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="15" name="Forma livre 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0A144D-474B-D04B-70F8-38A40F6958B6}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1390" y="387"/>
+                <a:ext cx="53" cy="54"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 21 w 137"/>
+                  <a:gd name="T1" fmla="*/ 117 h 137"/>
+                  <a:gd name="T2" fmla="*/ 42 w 137"/>
+                  <a:gd name="T3" fmla="*/ 131 h 137"/>
+                  <a:gd name="T4" fmla="*/ 69 w 137"/>
+                  <a:gd name="T5" fmla="*/ 137 h 137"/>
+                  <a:gd name="T6" fmla="*/ 95 w 137"/>
+                  <a:gd name="T7" fmla="*/ 131 h 137"/>
+                  <a:gd name="T8" fmla="*/ 117 w 137"/>
+                  <a:gd name="T9" fmla="*/ 117 h 137"/>
+                  <a:gd name="T10" fmla="*/ 132 w 137"/>
+                  <a:gd name="T11" fmla="*/ 95 h 137"/>
+                  <a:gd name="T12" fmla="*/ 137 w 137"/>
+                  <a:gd name="T13" fmla="*/ 68 h 137"/>
+                  <a:gd name="T14" fmla="*/ 132 w 137"/>
+                  <a:gd name="T15" fmla="*/ 42 h 137"/>
+                  <a:gd name="T16" fmla="*/ 117 w 137"/>
+                  <a:gd name="T17" fmla="*/ 20 h 137"/>
+                  <a:gd name="T18" fmla="*/ 95 w 137"/>
+                  <a:gd name="T19" fmla="*/ 6 h 137"/>
+                  <a:gd name="T20" fmla="*/ 69 w 137"/>
+                  <a:gd name="T21" fmla="*/ 0 h 137"/>
+                  <a:gd name="T22" fmla="*/ 42 w 137"/>
+                  <a:gd name="T23" fmla="*/ 6 h 137"/>
+                  <a:gd name="T24" fmla="*/ 21 w 137"/>
+                  <a:gd name="T25" fmla="*/ 20 h 137"/>
+                  <a:gd name="T26" fmla="*/ 6 w 137"/>
+                  <a:gd name="T27" fmla="*/ 42 h 137"/>
+                  <a:gd name="T28" fmla="*/ 0 w 137"/>
+                  <a:gd name="T29" fmla="*/ 68 h 137"/>
+                  <a:gd name="T30" fmla="*/ 6 w 137"/>
+                  <a:gd name="T31" fmla="*/ 95 h 137"/>
+                  <a:gd name="T32" fmla="*/ 21 w 137"/>
+                  <a:gd name="T33" fmla="*/ 117 h 137"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T18" y="T19"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T20" y="T21"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T22" y="T23"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T24" y="T25"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T26" y="T27"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T28" y="T29"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T30" y="T31"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T32" y="T33"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="137" h="137">
+                    <a:moveTo>
+                      <a:pt x="21" y="117"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="27" y="123"/>
+                      <a:pt x="34" y="128"/>
+                      <a:pt x="42" y="131"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="50" y="135"/>
+                      <a:pt x="59" y="137"/>
+                      <a:pt x="69" y="137"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="78" y="137"/>
+                      <a:pt x="87" y="135"/>
+                      <a:pt x="95" y="131"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="104" y="128"/>
+                      <a:pt x="111" y="123"/>
+                      <a:pt x="117" y="117"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="123" y="111"/>
+                      <a:pt x="128" y="103"/>
+                      <a:pt x="132" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="135" y="87"/>
+                      <a:pt x="137" y="78"/>
+                      <a:pt x="137" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="137" y="59"/>
+                      <a:pt x="135" y="50"/>
+                      <a:pt x="132" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="128" y="34"/>
+                      <a:pt x="123" y="26"/>
+                      <a:pt x="117" y="20"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="111" y="14"/>
+                      <a:pt x="104" y="9"/>
+                      <a:pt x="95" y="6"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="87" y="2"/>
+                      <a:pt x="78" y="0"/>
+                      <a:pt x="69" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="59" y="0"/>
+                      <a:pt x="50" y="2"/>
+                      <a:pt x="42" y="6"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="34" y="9"/>
+                      <a:pt x="27" y="14"/>
+                      <a:pt x="21" y="20"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="14" y="26"/>
+                      <a:pt x="9" y="34"/>
+                      <a:pt x="6" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="2" y="50"/>
+                      <a:pt x="0" y="59"/>
+                      <a:pt x="0" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="78"/>
+                      <a:pt x="2" y="87"/>
+                      <a:pt x="6" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="9" y="103"/>
+                      <a:pt x="14" y="111"/>
+                      <a:pt x="21" y="117"/>
+                    </a:cubicBezTo>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Forma livre 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF1FBEF-F053-D4B3-6EB0-ECAF2165ACB8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1631" y="387"/>
+                <a:ext cx="53" cy="54"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="T0" fmla="*/ 20 w 136"/>
+                  <a:gd name="T1" fmla="*/ 117 h 137"/>
+                  <a:gd name="T2" fmla="*/ 41 w 136"/>
+                  <a:gd name="T3" fmla="*/ 131 h 137"/>
+                  <a:gd name="T4" fmla="*/ 68 w 136"/>
+                  <a:gd name="T5" fmla="*/ 137 h 137"/>
+                  <a:gd name="T6" fmla="*/ 95 w 136"/>
+                  <a:gd name="T7" fmla="*/ 131 h 137"/>
+                  <a:gd name="T8" fmla="*/ 116 w 136"/>
+                  <a:gd name="T9" fmla="*/ 117 h 137"/>
+                  <a:gd name="T10" fmla="*/ 131 w 136"/>
+                  <a:gd name="T11" fmla="*/ 95 h 137"/>
+                  <a:gd name="T12" fmla="*/ 136 w 136"/>
+                  <a:gd name="T13" fmla="*/ 68 h 137"/>
+                  <a:gd name="T14" fmla="*/ 131 w 136"/>
+                  <a:gd name="T15" fmla="*/ 42 h 137"/>
+                  <a:gd name="T16" fmla="*/ 116 w 136"/>
+                  <a:gd name="T17" fmla="*/ 20 h 137"/>
+                  <a:gd name="T18" fmla="*/ 95 w 136"/>
+                  <a:gd name="T19" fmla="*/ 6 h 137"/>
+                  <a:gd name="T20" fmla="*/ 68 w 136"/>
+                  <a:gd name="T21" fmla="*/ 0 h 137"/>
+                  <a:gd name="T22" fmla="*/ 41 w 136"/>
+                  <a:gd name="T23" fmla="*/ 6 h 137"/>
+                  <a:gd name="T24" fmla="*/ 20 w 136"/>
+                  <a:gd name="T25" fmla="*/ 20 h 137"/>
+                  <a:gd name="T26" fmla="*/ 5 w 136"/>
+                  <a:gd name="T27" fmla="*/ 42 h 137"/>
+                  <a:gd name="T28" fmla="*/ 0 w 136"/>
+                  <a:gd name="T29" fmla="*/ 68 h 137"/>
+                  <a:gd name="T30" fmla="*/ 5 w 136"/>
+                  <a:gd name="T31" fmla="*/ 95 h 137"/>
+                  <a:gd name="T32" fmla="*/ 20 w 136"/>
+                  <a:gd name="T33" fmla="*/ 117 h 137"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="T0" y="T1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T2" y="T3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T4" y="T5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T6" y="T7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T8" y="T9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T10" y="T11"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T12" y="T13"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T14" y="T15"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T16" y="T17"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T18" y="T19"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T20" y="T21"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T22" y="T23"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T24" y="T25"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T26" y="T27"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T28" y="T29"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T30" y="T31"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="T32" y="T33"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="0" t="0" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="136" h="137">
+                    <a:moveTo>
+                      <a:pt x="20" y="117"/>
+                    </a:moveTo>
+                    <a:cubicBezTo>
+                      <a:pt x="26" y="123"/>
+                      <a:pt x="33" y="128"/>
+                      <a:pt x="41" y="131"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="49" y="135"/>
+                      <a:pt x="58" y="137"/>
+                      <a:pt x="68" y="137"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="77" y="137"/>
+                      <a:pt x="86" y="135"/>
+                      <a:pt x="95" y="131"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="103" y="128"/>
+                      <a:pt x="110" y="123"/>
+                      <a:pt x="116" y="117"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="122" y="111"/>
+                      <a:pt x="127" y="103"/>
+                      <a:pt x="131" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="134" y="87"/>
+                      <a:pt x="136" y="78"/>
+                      <a:pt x="136" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="136" y="59"/>
+                      <a:pt x="134" y="50"/>
+                      <a:pt x="131" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="127" y="34"/>
+                      <a:pt x="122" y="26"/>
+                      <a:pt x="116" y="20"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="110" y="14"/>
+                      <a:pt x="103" y="9"/>
+                      <a:pt x="95" y="6"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="86" y="2"/>
+                      <a:pt x="77" y="0"/>
+                      <a:pt x="68" y="0"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="58" y="0"/>
+                      <a:pt x="49" y="2"/>
+                      <a:pt x="41" y="6"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="33" y="9"/>
+                      <a:pt x="26" y="14"/>
+                      <a:pt x="20" y="20"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="13" y="26"/>
+                      <a:pt x="9" y="34"/>
+                      <a:pt x="5" y="42"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="1" y="50"/>
+                      <a:pt x="0" y="59"/>
+                      <a:pt x="0" y="68"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="0" y="78"/>
+                      <a:pt x="1" y="87"/>
+                      <a:pt x="5" y="95"/>
+                    </a:cubicBezTo>
+                    <a:cubicBezTo>
+                      <a:pt x="9" y="103"/>
+                      <a:pt x="13" y="111"/>
+                      <a:pt x="20" y="117"/>
+                    </a:cubicBezTo>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:round/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Forma livre 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3A4D1C-42D4-6665-ACAD-9BD5F018217F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9153414" y="407333"/>
+            <a:ext cx="1312081" cy="752475"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 3063 w 3063"/>
+              <a:gd name="T1" fmla="*/ 580 h 1912"/>
+              <a:gd name="T2" fmla="*/ 2628 w 3063"/>
+              <a:gd name="T3" fmla="*/ 145 h 1912"/>
+              <a:gd name="T4" fmla="*/ 2385 w 3063"/>
+              <a:gd name="T5" fmla="*/ 219 h 1912"/>
+              <a:gd name="T6" fmla="*/ 1932 w 3063"/>
+              <a:gd name="T7" fmla="*/ 0 h 1912"/>
+              <a:gd name="T8" fmla="*/ 1582 w 3063"/>
+              <a:gd name="T9" fmla="*/ 118 h 1912"/>
+              <a:gd name="T10" fmla="*/ 1272 w 3063"/>
+              <a:gd name="T11" fmla="*/ 2 h 1912"/>
+              <a:gd name="T12" fmla="*/ 882 w 3063"/>
+              <a:gd name="T13" fmla="*/ 209 h 1912"/>
+              <a:gd name="T14" fmla="*/ 636 w 3063"/>
+              <a:gd name="T15" fmla="*/ 160 h 1912"/>
+              <a:gd name="T16" fmla="*/ 0 w 3063"/>
+              <a:gd name="T17" fmla="*/ 796 h 1912"/>
+              <a:gd name="T18" fmla="*/ 275 w 3063"/>
+              <a:gd name="T19" fmla="*/ 1320 h 1912"/>
+              <a:gd name="T20" fmla="*/ 874 w 3063"/>
+              <a:gd name="T21" fmla="*/ 1779 h 1912"/>
+              <a:gd name="T22" fmla="*/ 1139 w 3063"/>
+              <a:gd name="T23" fmla="*/ 1720 h 1912"/>
+              <a:gd name="T24" fmla="*/ 1584 w 3063"/>
+              <a:gd name="T25" fmla="*/ 1912 h 1912"/>
+              <a:gd name="T26" fmla="*/ 2086 w 3063"/>
+              <a:gd name="T27" fmla="*/ 1648 h 1912"/>
+              <a:gd name="T28" fmla="*/ 2392 w 3063"/>
+              <a:gd name="T29" fmla="*/ 1735 h 1912"/>
+              <a:gd name="T30" fmla="*/ 2968 w 3063"/>
+              <a:gd name="T31" fmla="*/ 1159 h 1912"/>
+              <a:gd name="T32" fmla="*/ 2911 w 3063"/>
+              <a:gd name="T33" fmla="*/ 911 h 1912"/>
+              <a:gd name="T34" fmla="*/ 3063 w 3063"/>
+              <a:gd name="T35" fmla="*/ 580 h 1912"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="3063" h="1912">
+                <a:moveTo>
+                  <a:pt x="3063" y="580"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="3063" y="340"/>
+                  <a:pt x="2869" y="145"/>
+                  <a:pt x="2628" y="145"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="2538" y="145"/>
+                  <a:pt x="2455" y="172"/>
+                  <a:pt x="2385" y="219"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="2279" y="86"/>
+                  <a:pt x="2116" y="0"/>
+                  <a:pt x="1932" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1801" y="0"/>
+                  <a:pt x="1679" y="44"/>
+                  <a:pt x="1582" y="118"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1499" y="46"/>
+                  <a:pt x="1391" y="2"/>
+                  <a:pt x="1272" y="2"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1110" y="2"/>
+                  <a:pt x="967" y="84"/>
+                  <a:pt x="882" y="209"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="806" y="177"/>
+                  <a:pt x="723" y="160"/>
+                  <a:pt x="636" y="160"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="285" y="160"/>
+                  <a:pt x="0" y="445"/>
+                  <a:pt x="0" y="796"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1013"/>
+                  <a:pt x="109" y="1205"/>
+                  <a:pt x="275" y="1320"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="346" y="1584"/>
+                  <a:pt x="587" y="1779"/>
+                  <a:pt x="874" y="1779"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="969" y="1779"/>
+                  <a:pt x="1059" y="1758"/>
+                  <a:pt x="1139" y="1720"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1250" y="1838"/>
+                  <a:pt x="1408" y="1912"/>
+                  <a:pt x="1584" y="1912"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1792" y="1912"/>
+                  <a:pt x="1976" y="1808"/>
+                  <a:pt x="2086" y="1648"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="2175" y="1703"/>
+                  <a:pt x="2279" y="1735"/>
+                  <a:pt x="2392" y="1735"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="2710" y="1735"/>
+                  <a:pt x="2968" y="1477"/>
+                  <a:pt x="2968" y="1159"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="2968" y="1070"/>
+                  <a:pt x="2947" y="986"/>
+                  <a:pt x="2911" y="911"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="3004" y="831"/>
+                  <a:pt x="3063" y="712"/>
+                  <a:pt x="3063" y="580"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" rtlCol="0" anchor="t" anchorCtr="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104852</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>494475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Caixa de texto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DC69EB-802C-4CE5-92BB-553D4B82C194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104852" y="161121"/>
+          <a:ext cx="2609773" cy="333354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0"/>
+          <a:r>
+            <a:rPr lang="pt-br" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Suiça(Zurique)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-br" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> - Brasil</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Tw Cen MT Condensed Extra Bold" panose="020B0803020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2906803</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3859303</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagem 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EB603A-FB71-700F-13E3-8FB9A7CFBD9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6154828" y="66675"/>
+          <a:ext cx="952500" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A2:B15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A51:B57" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A59:B62" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A2:B15" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A40:B53" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A55:B61" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A63:B66" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A2:B15" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A17:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A17:B24" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}" name="Tabela595" displayName="Tabela595" ref="A36:B49" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A36:B49" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7588BE76-BC8B-44E7-8768-EE94B10EA551}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D41B8924-BE05-40F2-9169-0A872F186DDA}" name=" " totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A51:B57" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A51:B57" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A26:B34" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A59:B62" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A59:B62" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A36:B49" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A51:B57" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A59:B62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="103" totalsRowDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A2:B15" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A36:B49" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25517,8 +31674,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -25934,8 +32091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -26314,8 +32471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -26340,7 +32497,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="16">
         <v>45460</v>
       </c>
     </row>
@@ -26349,7 +32506,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26357,7 +32514,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26365,14 +32522,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="17">
         <v>0.25347222222222221</v>
       </c>
     </row>
@@ -26387,14 +32544,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="17">
         <v>0.43055555555555558</v>
       </c>
     </row>
@@ -26402,7 +32559,7 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="17">
         <v>0.21875</v>
       </c>
     </row>
@@ -26411,7 +32568,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26425,7 +32582,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26447,7 +32604,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26455,7 +32612,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26463,7 +32620,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26477,7 +32634,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26485,7 +32642,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26509,7 +32666,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26535,7 +32692,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26558,10 +32715,10 @@
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -26779,13 +32936,413 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="6">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -26793,249 +33350,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="77.33203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="79.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="77.33203125" style="9"/>
+    <col min="1" max="1" width="5.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="79.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="77.33203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="24">
         <v>45086</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="26">
         <v>45087</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="26">
         <v>45088</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>64</v>
+      <c r="D5" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="26">
         <v>45089</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="28">
         <v>45090</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="26">
         <v>45091</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="26">
         <v>45092</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="30">
         <v>45093</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>73</v>
+      <c r="D11" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="28">
         <v>45094</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>74</v>
+      <c r="D13" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="32">
         <v>45095</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>75</v>
+      <c r="D15" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="26">
         <v>45096</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>76</v>
+      <c r="D16" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="32">
         <v>45097</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>77</v>
+      <c r="D18" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="24">
         <v>45098</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>78</v>
+      <c r="D19" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{8674B5EC-5ACE-4F09-B121-E045B9ECCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD306E7D-FDF9-4884-AA38-DF97DF63C10A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25840A94-0B8E-4876-9A8D-B7F20DA7CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="93">
   <si>
     <t>Informações de saída</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Roma, Itália</t>
   </si>
   <si>
-    <t>Grécia - Santorini</t>
-  </si>
-  <si>
     <t>Santorini, Grécia</t>
   </si>
   <si>
@@ -265,15 +262,6 @@
     <t>Partida de Zurique para o Brasil.</t>
   </si>
   <si>
-    <t>ITÁLIA</t>
-  </si>
-  <si>
-    <t>GRÉCIA</t>
-  </si>
-  <si>
-    <t>SUÍÇA</t>
-  </si>
-  <si>
     <t>AEGEAN</t>
   </si>
   <si>
@@ -335,7 +323,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,11 +497,23 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,24 +695,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -842,169 +848,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1055,12 +898,9 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1069,114 +909,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="23" fillId="34" borderId="16" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="16" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="35" borderId="16" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="14" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="35" borderId="10" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="16" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="24" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1228,7 +1017,220 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="139">
+  <dxfs count="147">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1238,11 +1240,408 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1308,26 +1707,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1342,7 +1722,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1408,26 +1788,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1442,7 +1803,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1508,26 +1869,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1542,7 +1884,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1608,155 +1950,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1773,14 +1966,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1872,15 +2057,41 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1965,22 +2176,84 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2065,25 +2338,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2162,178 +2416,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2425,15 +2507,41 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2518,22 +2626,84 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2618,25 +2788,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2715,178 +2866,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2978,15 +2957,365 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3076,325 +3405,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -3432,14 +3442,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3481,9 +3483,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabela 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="138"/>
-      <tableStyleElement type="headerRow" dxfId="137"/>
-      <tableStyleElement type="firstRowStripe" dxfId="136"/>
+      <tableStyleElement type="wholeTable" dxfId="146"/>
+      <tableStyleElement type="headerRow" dxfId="145"/>
+      <tableStyleElement type="firstRowStripe" dxfId="144"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -31181,264 +31183,277 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="59">
   <autoFilter ref="A2:B15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="21" dataDxfId="130">
   <autoFilter ref="A51:B57" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="23" dataDxfId="125">
   <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="20" dataDxfId="120">
   <autoFilter ref="A59:B62" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="115">
   <autoFilter ref="A2:B15" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="18" dataDxfId="112">
   <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="16" dataDxfId="107">
   <autoFilter ref="A40:B53" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="15" dataDxfId="102">
   <autoFilter ref="A55:B61" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="17" dataDxfId="97">
   <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="14" dataDxfId="92">
   <autoFilter ref="A63:B66" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="87">
   <autoFilter ref="A2:B15" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="30" dataDxfId="56">
   <autoFilter ref="A17:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="12" dataDxfId="84">
   <autoFilter ref="A17:B24" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}" name="Tabela595" displayName="Tabela595" ref="A36:B49" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}" name="Tabela595" displayName="Tabela595" ref="A36:B49" headerRowDxfId="10" dataDxfId="79">
   <autoFilter ref="A36:B49" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7588BE76-BC8B-44E7-8768-EE94B10EA551}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{D41B8924-BE05-40F2-9169-0A872F186DDA}" name=" " totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{7588BE76-BC8B-44E7-8768-EE94B10EA551}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{D41B8924-BE05-40F2-9169-0A872F186DDA}" name=" " totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A51:B57" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A51:B57" headerRowDxfId="9" dataDxfId="74">
   <autoFilter ref="A51:B57" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="11" dataDxfId="69">
   <autoFilter ref="A26:B34" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A59:B62" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A59:B62" headerRowDxfId="8" dataDxfId="64">
   <autoFilter ref="A59:B62" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D17" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="4" dataCellStyle="Ênfase4"/>
+    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="3" dataCellStyle="Ênfase4"/>
+    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="2" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="1" dataCellStyle="20% - Ênfase2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="28" dataDxfId="51">
   <autoFilter ref="A36:B49" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="27" dataDxfId="46">
   <autoFilter ref="A51:B57" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="29" dataDxfId="41">
   <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="26" dataDxfId="36">
   <autoFilter ref="A59:B62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="25" dataDxfId="143">
   <autoFilter ref="A2:B15" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="24" dataDxfId="140">
   <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="22" dataDxfId="135">
   <autoFilter ref="A36:B49" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31447,7 +31462,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Blue Green">
+    <a:clrScheme name="Mediano">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -31455,34 +31470,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="373545"/>
+        <a:srgbClr val="775F55"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="CEDBE6"/>
+        <a:srgbClr val="EBDDC3"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="3494BA"/>
+        <a:srgbClr val="94B6D2"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="58B6C0"/>
+        <a:srgbClr val="DD8047"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="75BDA7"/>
+        <a:srgbClr val="A5AB81"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="7A8C8E"/>
+        <a:srgbClr val="D8B25C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="84ACB6"/>
+        <a:srgbClr val="7BA79D"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="2683C6"/>
+        <a:srgbClr val="968C8C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="6B9F25"/>
+        <a:srgbClr val="F7B615"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="9F6715"/>
+        <a:srgbClr val="704404"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Custom 5">
@@ -31675,13 +31690,13 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31689,382 +31704,382 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -32091,14 +32106,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B59" sqref="A59:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32106,352 +32121,352 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -32471,14 +32486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32486,436 +32501,436 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <v>45460</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>82</v>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="7">
         <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>83</v>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="7">
         <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="7">
         <v>0.21875</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>85</v>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>87</v>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>88</v>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>3709071136</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>91</v>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>92</v>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>94</v>
+      <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -32938,14 +32953,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32953,382 +32968,382 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -33348,260 +33363,247 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.33203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="110.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="79.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="77.33203125" style="8"/>
+    <col min="1" max="1" width="8.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="110.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="16">
+        <v>45451</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>45452</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>45086</v>
-      </c>
-      <c r="B3" s="36" t="s">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>45453</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>52</v>
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>45087</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="27" t="s">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>45454</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>45455</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>45456</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>45457</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>45092</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>45459</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>45460</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>45461</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>45088</v>
-      </c>
-      <c r="B5" s="37" t="s">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>45462</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>96</v>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>45089</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="7" t="s">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>45463</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>45090</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>45091</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="C16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>45092</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>45093</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>45094</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>45095</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>45096</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>45097</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="A17" s="16">
+        <v>45464</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>45098</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25840A94-0B8E-4876-9A8D-B7F20DA7CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E26D3-7F21-4F75-8D38-012F431C30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -253,12 +253,6 @@
     <t>Viagem de Santorini para Zurique (06:05 - 10:20). Explorar Zurique: Museu Lindt, Bahnhofstrasse (rua comercial).</t>
   </si>
   <si>
-    <t>Viagem de Zurique para Lucerna. Explorar Lucerna: Ponte da Capela, Monte Pilatus (opcional).</t>
-  </si>
-  <si>
-    <t>Viagem de Lucerna para Zurique (Preparativos para a volta).</t>
-  </si>
-  <si>
     <t>Partida de Zurique para o Brasil.</t>
   </si>
   <si>
@@ -307,10 +301,16 @@
     <t>Passeio em Lucerna</t>
   </si>
   <si>
-    <t>Passeio de barco pelo Lago dos Quatro Cantões</t>
+    <t>Coliseu, Fórum Romano, Palatino.</t>
   </si>
   <si>
-    <t>Coliseu, Fórum Romano, Palatino.</t>
+    <t>Viagem de Zurique para Lucerna. Explorar Lucerna: Ponte da Capela, Lago de Genebra.</t>
+  </si>
+  <si>
+    <t>Preparativos para a volta.</t>
+  </si>
+  <si>
+    <t>Interlaken e Jungfraujoch: Alpes suíços, De Interlaken, trem até Jungfraujoch, conhecido como o "Topo da Europa".</t>
   </si>
 </sst>
 </file>
@@ -952,13 +952,13 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="24" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,24 +1018,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="147">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1209,6 +1191,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1223,13 +1221,96 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1249,6 +1330,387 @@
           <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1276,63 +1738,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1343,99 +1755,11 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1446,194 +1770,11 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1726,24 +1867,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1751,59 +1874,15 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1888,6 +1967,25 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1966,6 +2064,278 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2057,41 +2427,15 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2176,84 +2520,22 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2338,6 +2620,25 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2416,6 +2717,178 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2507,365 +2980,15 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2955,367 +3078,17 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3405,6 +3178,225 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -3442,6 +3434,14 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -31183,277 +31183,277 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A2:B15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="21" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A51:B57" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="23" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="20" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A59:B62" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A2:B15" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="18" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="16" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A40:B53" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="15" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A55:B61" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="17" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="14" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A63:B66" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A2:B15" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="30" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A17:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="12" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A17:B24" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}" name="Tabela595" displayName="Tabela595" ref="A36:B49" headerRowDxfId="10" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}" name="Tabela595" displayName="Tabela595" ref="A36:B49" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A36:B49" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7588BE76-BC8B-44E7-8768-EE94B10EA551}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{D41B8924-BE05-40F2-9169-0A872F186DDA}" name=" " totalsRowFunction="count" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{7588BE76-BC8B-44E7-8768-EE94B10EA551}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{D41B8924-BE05-40F2-9169-0A872F186DDA}" name=" " totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A51:B57" headerRowDxfId="9" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A51:B57" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A51:B57" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="11" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A26:B34" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A59:B62" headerRowDxfId="8" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A59:B62" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A59:B62" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D17" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="4" dataCellStyle="Ênfase4"/>
-    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="3" dataCellStyle="Ênfase4"/>
-    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="2" dataCellStyle="20% - Ênfase2"/>
-    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="1" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="3" dataCellStyle="Ênfase4"/>
+    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="2" dataCellStyle="Ênfase4"/>
+    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="1" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="0" dataCellStyle="20% - Ênfase2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="28" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="A36:B49" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="27" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A51:B57" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="29" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="26" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="A59:B62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="25" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A2:B15" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="24" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="101" totalsRowDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="22" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A36:B49" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32521,7 +32521,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32529,7 +32529,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32537,7 +32537,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32559,7 +32559,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32583,7 +32583,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32597,7 +32597,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32619,7 +32619,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32627,7 +32627,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32635,7 +32635,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32649,7 +32649,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32657,7 +32657,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32681,7 +32681,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32707,7 +32707,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32730,10 +32730,10 @@
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -33366,16 +33366,16 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="110.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="115.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="110.88671875" style="5"/>
+    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="115.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -33431,7 +33431,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33553,7 +33553,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33567,7 +33567,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33581,7 +33581,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33595,7 +33595,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E26D3-7F21-4F75-8D38-012F431C30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD571D-05DA-4463-88D1-04C480AC2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33366,7 +33366,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD571D-05DA-4463-88D1-04C480AC2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470D437-599F-4295-B68E-E694F95E8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Roteiro" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BRASIL - ITÁLIA(ROMA)'!$A$2:$B$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BRASIL - ITÁLIA(ROMA)'!$A$2:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="93">
-  <si>
-    <t>Informações de saída</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="107">
   <si>
     <t>Data</t>
   </si>
@@ -151,39 +148,6 @@
     <t>Informações de ida</t>
   </si>
   <si>
-    <t>Cidades</t>
-  </si>
-  <si>
-    <t>Tempo Viagem +-</t>
-  </si>
-  <si>
-    <t>Roma Termini - Veneza Santa Lucia</t>
-  </si>
-  <si>
-    <t>07:00 (chegada 10:20)</t>
-  </si>
-  <si>
-    <t>Veneza Santa Lucia - Florença Santa Maria Novella</t>
-  </si>
-  <si>
-    <t>06:00 (chegada 08:27)</t>
-  </si>
-  <si>
-    <t>Florença Santa Maria Novella - Roma Termini</t>
-  </si>
-  <si>
-    <t>16:00 (chegada 18:30)</t>
-  </si>
-  <si>
-    <t>Zurique - Lucerna</t>
-  </si>
-  <si>
-    <t>Lucerna - Zurique</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -259,9 +223,6 @@
     <t>AEGEAN</t>
   </si>
   <si>
-    <t>V5J7DB</t>
-  </si>
-  <si>
     <t>SANTORINI</t>
   </si>
   <si>
@@ -312,6 +273,106 @@
   <si>
     <t>Interlaken e Jungfraujoch: Alpes suíços, De Interlaken, trem até Jungfraujoch, conhecido como o "Topo da Europa".</t>
   </si>
+  <si>
+    <t>Infos Adicionais</t>
+  </si>
+  <si>
+    <t>Site oficial dos trens suíços (SBB/CFF/FFS)</t>
+  </si>
+  <si>
+    <t>Número de Emergência Geral</t>
+  </si>
+  <si>
+    <t>Polícia</t>
+  </si>
+  <si>
+    <t>Ambulância</t>
+  </si>
+  <si>
+    <t>Bombeiros</t>
+  </si>
+  <si>
+    <t>Consulado</t>
+  </si>
+  <si>
+    <t>segunda a sexta-feira, das 11h às 13h, pelo número 044 206 9020 
+Plantão consular: 
+somente para casos de PRISÃO, ACIDENTE GRAVE, MORTE ou CATÁSTROFE NATURAL: 
+De fora da Suíça: +41 79 742 5300
+De dentro da Suíça: 079 742 5300 
+Endereço do consulado: Stampfenbachstrasse 138, 8006 Zürich
+Horário de atendimento ao público: 
+de segunda a sexta-feira, das 9h às 13h. 
+No período da tarde, de segunda a quinta-feira, das 14h às 16h.</t>
+  </si>
+  <si>
+    <t>Horário de Atendimento:         
+Segunda a sexta-feira, das 10h00 às 14h00.
+O atendimento deve ser previamente agendado por telefone, no número (+30) 210-721.3039, de segunda-feira a sexta-feira, das 09:00 às 15:00 horas, ou correio eletrônico. (consular.atenas@itamaraty.gov.br)
+Endereço:
+Avenida Vassilissis Sofias, nº 23 - 3º andar
+CEP 10674 - Kolonaki - Atenas
+Região da Ática - Grécia
+PLANTÃO CONSULAR
+Somente para casos excepcionais e de comprovada emergência:
+(+30) 693-6921673</t>
+  </si>
+  <si>
+    <t>Endereço: Via Santa Maria dell'Anima, 27, 00186 Roma, Itália
+Telefone: +39 06 686 9223
+Plantão consular (apenas para casos de emergência fora do horário de expediente): +39 340 139 6031</t>
+  </si>
+  <si>
+    <t>ITA AIRWAYS</t>
+  </si>
+  <si>
+    <t>AD4417</t>
+  </si>
+  <si>
+    <t>BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>ITÁLIA-ROMA</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>15J/15L</t>
+  </si>
+  <si>
+    <t>GRÉCIA-SANTORINI</t>
+  </si>
+  <si>
+    <t>16F/16E</t>
+  </si>
+  <si>
+    <t>LATAM</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>SUIÇA-ZURIQUE</t>
+  </si>
+  <si>
+    <t>PARIS-SP: 40L/40K | SP-BH: 12A-12B</t>
+  </si>
+  <si>
+    <t>13/06 ATÉ 17/06</t>
+  </si>
+  <si>
+    <t>SANTORINI KASTELLI RESORT</t>
+  </si>
+  <si>
+    <t>MAIN STREET, KAMARI, 84700, GRÉCIA</t>
+  </si>
+  <si>
+    <t>13/06 - 15HRS</t>
+  </si>
+  <si>
+    <t>17/06 - 11HRS</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +384,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,8 +573,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tw Cen MT Condensed Extra Bold"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,8 +786,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -848,6 +923,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -898,7 +993,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,9 +1002,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -967,6 +1059,27 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Ênfase1" xfId="24" builtinId="30" customBuiltin="1"/>
@@ -1017,7 +1130,150 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1320,106 +1576,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Tw Cen MT Condensed Extra Bold"/>
         <scheme val="major"/>
@@ -2186,106 +2342,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2330,206 +2386,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2910,21 +2766,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2949,136 +2790,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Tw Cen MT Condensed Extra Bold"/>
         <scheme val="major"/>
@@ -3483,9 +3194,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabela 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="146"/>
-      <tableStyleElement type="headerRow" dxfId="145"/>
-      <tableStyleElement type="firstRowStripe" dxfId="144"/>
+      <tableStyleElement type="wholeTable" dxfId="122"/>
+      <tableStyleElement type="headerRow" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -20126,7 +19837,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11203" y="0"/>
-          <a:ext cx="7608796" cy="828675"/>
+          <a:ext cx="8199346" cy="828675"/>
           <a:chOff x="11203" y="1"/>
           <a:chExt cx="10897375" cy="1385455"/>
         </a:xfrm>
@@ -25583,13 +25294,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:colOff>3733800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:colOff>4524375</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:to>
@@ -25621,7 +25332,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6010275" y="19050"/>
+          <a:off x="6848475" y="19050"/>
           <a:ext cx="790575" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31183,277 +30894,233 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A2:B15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A51:B57" headerRowDxfId="93" dataDxfId="92">
-  <autoFilter ref="A51:B57" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A44:B49" headerRowDxfId="6" dataDxfId="3">
+  <autoFilter ref="A44:B49" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="87" dataDxfId="86">
-  <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="A2:B15" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A59:B62" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A59:B62" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="A2:B15" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A40:B46" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A40:B46" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}" name="Tabela5922" displayName="Tabela5922" ref="A40:B53" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="A40:B53" xr:uid="{ADE05765-F57F-454F-BBF7-EEBCC60D1111}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A48:B53" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A48:B53" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B9428F3-1F43-4047-8070-B54E80A1A5DD}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{3C7BA61A-102D-4EF7-B643-5C432EE2BC7C}" name=" " totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A55:B61" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="A55:B61" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A2:B15" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A17:B24" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A63:B66" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A63:B66" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A36:B42" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A36:B42" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A2:B15" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A26:B34" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="A17:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A17:B24" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A44:B47" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A44:B47" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}" name="Tabela595" displayName="Tabela595" ref="A36:B49" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A36:B49" xr:uid="{C87D8E3E-A7C8-4FAA-9D09-BBEAE8AA7488}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7588BE76-BC8B-44E7-8768-EE94B10EA551}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{D41B8924-BE05-40F2-9169-0A872F186DDA}" name=" " totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A51:B57" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A51:B57" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A26:B34" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A59:B62" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A59:B62" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:D17" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="3" dataCellStyle="Ênfase4"/>
-    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="2" dataCellStyle="Ênfase4"/>
-    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="1" dataCellStyle="20% - Ênfase2"/>
-    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="0" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="12" dataCellStyle="Ênfase4"/>
+    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="11" dataCellStyle="Ênfase4"/>
+    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="10" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="9" dataCellStyle="20% - Ênfase2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela59" displayName="Tabela59" ref="A36:B49" headerRowDxfId="133" dataDxfId="132">
-  <autoFilter ref="A36:B49" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A36:B42" headerRowDxfId="109" dataDxfId="108">
+  <autoFilter ref="A36:B42" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " totalsRowFunction="count" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="105" totalsRowDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A51:B57" headerRowDxfId="127" dataDxfId="126">
-  <autoFilter ref="A51:B57" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A44:B49" headerRowDxfId="97" dataDxfId="0">
+  <autoFilter ref="A44:B49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A59:B62" headerRowDxfId="115" dataDxfId="114">
-  <autoFilter ref="A59:B62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+  <autoFilter ref="A2:B15" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
-  <autoFilter ref="A2:B15" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="90" dataDxfId="89">
+  <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="105" dataDxfId="104">
-  <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A36:B42" headerRowDxfId="84" dataDxfId="83">
+  <autoFilter ref="A36:B42" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}" name="Tabela5916" displayName="Tabela5916" ref="A36:B49" headerRowDxfId="99" dataDxfId="98">
-  <autoFilter ref="A36:B49" xr:uid="{6FF0810F-B256-47E9-84EE-1225FF6DB8B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF5F153D-F8EE-40AA-A90C-A58D15F1871C}" name="Informações de saída" totalsRowLabel="Total" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{32648571-0FBA-4B90-BB89-FE207C6763AB}" name=" " totalsRowFunction="count" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31687,10 +31354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31704,386 +31371,334 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5">
+        <v>45451</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6">
+        <v>0.28125</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6">
+        <v>0.51388888888888895</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
+      <c r="A17" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
+      <c r="A26" s="11" t="s">
+        <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>36</v>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>0</v>
+      <c r="A36" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>36</v>
+      <c r="B36" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
+      <c r="B44" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2">
+        <v>118</v>
+      </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>13</v>
+    <row r="49" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>86</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="27" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>27</v>
+      <c r="A51" s="23" t="s">
+        <v>80</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B51" s="23"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="2"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
@@ -32091,23 +31706,22 @@
 </oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B59" sqref="A59:B59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32121,379 +31735,369 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6">
+        <v>0.85416666666666663</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6">
+        <v>0.15277777777777776</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
+      <c r="A17" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="29" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="29" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>4109785092</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
+      <c r="A26" s="11" t="s">
+        <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>36</v>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>0</v>
+      <c r="A36" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>36</v>
+      <c r="B36" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
+      <c r="B44" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2">
+        <v>199</v>
+      </c>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2">
+        <v>166</v>
+      </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>13</v>
+    <row r="49" spans="1:2" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>86</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="27" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>27</v>
+      <c r="A51" s="23" t="s">
+        <v>80</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B51" s="23"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="2"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="2"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B63" sqref="A63:B63"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -32501,460 +32105,395 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45460</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0.21875</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
+      <c r="A17" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
         <v>3709071136</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
+      <c r="A26" s="11" t="s">
+        <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>36</v>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>0</v>
+      <c r="A40" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>36</v>
+      <c r="B40" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>7</v>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>8</v>
+      <c r="B48" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2">
+        <v>144</v>
+      </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>13</v>
+    <row r="53" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>86</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>27</v>
+      <c r="A55" s="23" t="s">
+        <v>80</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B55" s="23"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>28</v>
+      <c r="A56" s="25" t="s">
+        <v>81</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="25"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="2"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32968,395 +32507,318 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>38</v>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5">
+        <v>45464</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6">
+        <v>0.98958333333333337</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6">
+        <v>0.88541666666666663</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
+      <c r="A17" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
+      <c r="B17" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
+      <c r="A26" s="11" t="s">
+        <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>36</v>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>0</v>
+      <c r="A36" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>36</v>
+      <c r="B36" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>8</v>
+      <c r="B44" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>12</v>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>80</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B49" s="23"/>
     </row>
-    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="2"/>
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -33365,237 +32827,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="115.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="115.109375" style="5"/>
+    <col min="1" max="1" width="8.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="115.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>1</v>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>58</v>
+      <c r="B1" s="22" t="s">
+        <v>46</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>50</v>
+      <c r="C1" s="22" t="s">
+        <v>38</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>22</v>
+      <c r="D1" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>45451</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>69</v>
+      <c r="B2" s="16" t="s">
+        <v>57</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>51</v>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>45452</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>45453</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>45454</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>45452</v>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>45455</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>59</v>
+      <c r="B6" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>45456</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>61</v>
+      <c r="C8" s="14" t="s">
+        <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>45453</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>45454</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>45455</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>45456</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>45457</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>67</v>
+      <c r="B9" s="16" t="s">
+        <v>55</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>68</v>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>45092</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>69</v>
+      <c r="B10" s="16" t="s">
+        <v>57</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>54</v>
+      <c r="C10" s="9" t="s">
+        <v>42</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>70</v>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>45459</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>45460</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>45461</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>62</v>
+      <c r="B14" s="16" t="s">
+        <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>56</v>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>90</v>
+      <c r="D14" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>45462</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>63</v>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>55</v>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>92</v>
+      <c r="D15" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>45463</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>65</v>
+      <c r="B16" s="16" t="s">
+        <v>53</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>91</v>
+      <c r="D16" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>45464</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>67</v>
+      <c r="B17" s="16" t="s">
+        <v>55</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>57</v>
+      <c r="C17" s="16" t="s">
+        <v>45</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>73</v>
+      <c r="D17" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470D437-599F-4295-B68E-E694F95E8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CEE7B0-4C1C-4472-88AC-BE4933C5237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
   <si>
     <t>Data</t>
   </si>
@@ -208,12 +208,6 @@
     <t>Sábado</t>
   </si>
   <si>
-    <t>Passeio de barco ao vulcão Nea Kameni, águas termais.</t>
-  </si>
-  <si>
-    <t>Explorar praias de Santorini: Red Beach, Kamari Beach.</t>
-  </si>
-  <si>
     <t>Viagem de Santorini para Zurique (06:05 - 10:20). Explorar Zurique: Museu Lindt, Bahnhofstrasse (rua comercial).</t>
   </si>
   <si>
@@ -263,15 +257,6 @@
   </si>
   <si>
     <t>Coliseu, Fórum Romano, Palatino.</t>
-  </si>
-  <si>
-    <t>Viagem de Zurique para Lucerna. Explorar Lucerna: Ponte da Capela, Lago de Genebra.</t>
-  </si>
-  <si>
-    <t>Preparativos para a volta.</t>
-  </si>
-  <si>
-    <t>Interlaken e Jungfraujoch: Alpes suíços, De Interlaken, trem até Jungfraujoch, conhecido como o "Topo da Europa".</t>
   </si>
   <si>
     <t>Infos Adicionais</t>
@@ -372,6 +357,27 @@
   </si>
   <si>
     <t>17/06 - 11HRS</t>
+  </si>
+  <si>
+    <t>Jungfrau Region e Retorno a Zurique 09h/15h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucerna e Interlaken 7h/14h/20h </t>
+  </si>
+  <si>
+    <t>Berna, Suíça</t>
+  </si>
+  <si>
+    <t>Jungfrau, Suíça</t>
+  </si>
+  <si>
+    <t>Mykonos, Grécia</t>
+  </si>
+  <si>
+    <t>Berna  8h/15h</t>
+  </si>
+  <si>
+    <t>Florença, Itália</t>
   </si>
 </sst>
 </file>
@@ -1059,18 +1065,6 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1078,6 +1072,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1130,150 +1136,7 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT Condensed Extra Bold"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="121">
     <dxf>
       <font>
         <b val="0"/>
@@ -2395,6 +2258,70 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT Condensed Extra Bold"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2766,6 +2693,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2781,6 +2723,36 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3194,9 +3166,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabela 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="122"/>
-      <tableStyleElement type="headerRow" dxfId="121"/>
-      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="wholeTable" dxfId="120"/>
+      <tableStyleElement type="headerRow" dxfId="119"/>
+      <tableStyleElement type="firstRowStripe" dxfId="118"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -30894,233 +30866,233 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela5" displayName="Tabela5" ref="A2:B15" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="A2:B15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Informações de ida" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" " dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A44:B49" headerRowDxfId="6" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}" name="Tabela3219" displayName="Tabela3219" ref="A44:B49" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A44:B49" xr:uid="{172D3B75-FE90-41D7-9289-2B5283DE6736}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{408E4FD7-6181-4BC2-BE77-21F23DBE3122}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{0DF61A75-C543-4AD1-B305-F0EF3F5637DE}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}" name="Tabela520" displayName="Tabela520" ref="A2:B15" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A2:B15" xr:uid="{6AED72C5-AF1B-43A1-872D-4AC543665AFD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{1EEAD2D7-2B4D-4E6D-8FB1-205A9F90C1BC}" name="Informações de ida" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{3DB7F8CE-67C1-44E5-B5AF-7525AEEC0AC7}" name=" " dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}" name="Tabela721" displayName="Tabela721" ref="A17:B24" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A17:B24" xr:uid="{5B15C11E-EA60-4EB5-ABDA-44FC7DCACD85}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{0301C8E9-6A1A-4784-BAA7-3E2767934518}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{62C1F536-2C81-4946-B864-D8D0831F5E6D}" name=" " totalsRowFunction="count" dataDxfId="55" totalsRowDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A40:B46" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}" name="Tabela923" displayName="Tabela923" ref="A40:B46" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A40:B46" xr:uid="{31DFACE2-8CE7-4FE0-93E9-04B8CBACFD92}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{58C20ABB-6F52-43BA-85BD-BD34735B6DE0}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{1E3B1D92-E268-4CCC-A335-154D006F2DBC}" name=" " totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}" name="Tabela1124" displayName="Tabela1124" ref="A26:B38" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A26:B38" xr:uid="{0070B86A-0770-42E0-9BA2-09837929F68C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{BD1E1E64-2B42-4FE6-A6BD-098EA2EA535B}" name="Atividades" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{9E19BB7E-4470-4E75-9DE8-DE2685CFA40B}" name=" " totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A48:B53" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}" name="Tabela3225" displayName="Tabela3225" ref="A48:B53" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A48:B53" xr:uid="{94FA2BA5-0565-462C-A290-922DF49C0584}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{6D20352B-C120-49CE-8DC6-87B93920F26C}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{2FD2358E-E58C-432F-BC82-9E821FA0EB2C}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}" name="Tabela53" displayName="Tabela53" ref="A2:B15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A2:B15" xr:uid="{D54A8711-3B98-45B1-8A64-91D51E3345E8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{CEF1E83A-73E4-4BCD-89CC-EC7FBD6D489A}" name="Informações de ida" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{05BA9D77-201D-4DA4-85C7-BB5057946775}" name=" " dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}" name="Tabela74" displayName="Tabela74" ref="A17:B24" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A17:B24" xr:uid="{5D442CAA-8C2A-400A-A688-E17FE482D395}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{0D310EF3-FEC4-4DDC-803C-C8FB4C22DFC5}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{C77954DF-5436-4692-91F1-508F65D564BA}" name=" " totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A36:B42" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}" name="Tabela97" displayName="Tabela97" ref="A36:B42" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A36:B42" xr:uid="{E399CDCF-C732-4E67-82F8-46CDCB9A3CC7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{385E2341-241C-47C4-A8D6-DEB2E114B186}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7DF42104-396A-4303-9EDF-0D0D6FC967CA}" name=" " totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}" name="Tabela1111" displayName="Tabela1111" ref="A26:B34" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A26:B34" xr:uid="{E84CECE5-4AB6-43B8-B1A6-C2CC9971118C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{ADC19F54-9688-41DC-BB40-91ECBEF9502D}" name="Atividades" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{878FF78C-2929-4454-BDB9-E293645FD01C}" name=" " totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela7" displayName="Tabela7" ref="A17:B24" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A17:B24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " totalsRowFunction="count" dataDxfId="109" totalsRowDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A44:B47" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}" name="Tabela3213" displayName="Tabela3213" ref="A44:B47" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A44:B47" xr:uid="{1EFD6748-87A7-4302-8B28-5C8A4FE36E60}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{3EEEC724-7D96-4D7C-8617-5A3066D120EA}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2C7588D9-2933-4F8E-9FD4-6B92D1594D8B}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}" name="Tabela26" displayName="Tabela26" ref="A1:D17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D17" xr:uid="{A2F91F84-CDEB-4436-B481-642E563BDCCF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="12" dataCellStyle="Ênfase4"/>
-    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="11" dataCellStyle="Ênfase4"/>
-    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="10" dataCellStyle="20% - Ênfase2"/>
-    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="9" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="1" xr3:uid="{6D256CE4-1FA4-443A-890F-10BD51D00B10}" name="Data" dataDxfId="3" dataCellStyle="Ênfase4"/>
+    <tableColumn id="2" xr3:uid="{1C6D7432-6636-4F21-B158-1B1B3D9BB1DD}" name="Dia da Semana" dataDxfId="2" dataCellStyle="Ênfase4"/>
+    <tableColumn id="3" xr3:uid="{CC82F96C-2DCC-40E1-8A9C-491DB4B93744}" name="Local" dataDxfId="1" dataCellStyle="20% - Ênfase2"/>
+    <tableColumn id="4" xr3:uid="{66FEFF32-83EC-4706-A203-DC8F79B6636F}" name="Atividades" dataDxfId="0" dataCellStyle="20% - Ênfase2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A36:B42" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela9" displayName="Tabela9" ref="A36:B42" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A36:B42" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name=" " totalsRowFunction="count" dataDxfId="103" totalsRowDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela11" displayName="Tabela11" ref="A26:B34" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A26:B34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Atividades" totalsRowLabel="Total" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name=" " totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A44:B49" headerRowDxfId="97" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela32" displayName="Tabela32" ref="A44:B49" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A44:B49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Contatos de emergência" totalsRowLabel="Total" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Número de telefone alternativo/número de telefone" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}" name="Tabela514" displayName="Tabela514" ref="A2:B15" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A2:B15" xr:uid="{F78A5136-45B0-46C1-BFCF-E03E34FD035A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{B25A594C-E327-459A-9FF0-CF9FE3E1D1D4}" name="Informações de ida" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{50438F83-4D3D-4DE0-BD14-D097943E1303}" name=" " dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}" name="Tabela715" displayName="Tabela715" ref="A17:B24" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A17:B24" xr:uid="{A61F25AC-00FE-4DEA-9D50-A209F344F793}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{AD0121D7-AA6D-4D63-B834-CA9D23D971B8}" name="Hospedagem" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{A66C8B1F-4948-42CB-B473-58C98BF7991B}" name=" " totalsRowFunction="count" dataDxfId="81" totalsRowDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A36:B42" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}" name="Tabela917" displayName="Tabela917" ref="A36:B42" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A36:B42" xr:uid="{E8A6B0CE-5A25-4294-B3AE-F6FBD13881BA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{F87EAA08-C759-4176-A269-0E60EAB13C81}" name="Seguro de viagem" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{A81BEA90-1385-430D-8198-8AB7C2E4907F}" name=" " totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}" name="Tabela1118" displayName="Tabela1118" ref="A26:B34" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A26:B34" xr:uid="{0703DA44-C075-4D18-83B2-5950175CC485}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{A6F2077C-D491-4176-96B0-EA97861D4A21}" name="Atividades" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{EC0A9E49-F568-4A33-9591-100E13D96135}" name=" " totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31356,8 +31328,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31391,7 +31363,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31399,7 +31371,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31407,7 +31379,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31429,7 +31401,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31453,7 +31425,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31467,7 +31439,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31636,7 +31608,7 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2">
         <v>112</v>
@@ -31644,7 +31616,7 @@
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2">
         <v>115</v>
@@ -31652,7 +31624,7 @@
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2">
         <v>113</v>
@@ -31660,37 +31632,37 @@
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>86</v>
+      <c r="A49" s="24" t="s">
+        <v>81</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>89</v>
+      <c r="B49" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>80</v>
+      <c r="A51" s="26" t="s">
+        <v>75</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31720,7 +31692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -31755,7 +31727,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31769,7 +31741,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31791,7 +31763,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31815,7 +31787,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31829,7 +31801,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31851,7 +31823,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31859,7 +31831,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31867,7 +31839,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31880,16 +31852,16 @@
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>105</v>
+      <c r="B22" s="25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>106</v>
+      <c r="B23" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32010,7 +31982,7 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2">
         <v>112</v>
@@ -32018,7 +31990,7 @@
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2">
         <v>199</v>
@@ -32026,7 +31998,7 @@
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2">
         <v>100</v>
@@ -32034,37 +32006,37 @@
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2">
         <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="318.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>86</v>
+      <c r="A49" s="24" t="s">
+        <v>81</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>88</v>
+      <c r="B49" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>80</v>
+      <c r="A51" s="26" t="s">
+        <v>75</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32090,7 +32062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -32125,7 +32097,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32139,7 +32111,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32161,7 +32133,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32185,7 +32157,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32199,7 +32171,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32221,7 +32193,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32229,7 +32201,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32237,7 +32209,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32251,7 +32223,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32259,7 +32231,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32283,7 +32255,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32309,7 +32281,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32332,10 +32304,10 @@
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32410,7 +32382,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2">
         <v>112</v>
@@ -32418,7 +32390,7 @@
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2">
         <v>118</v>
@@ -32426,7 +32398,7 @@
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2">
         <v>117</v>
@@ -32434,39 +32406,39 @@
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2">
         <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="225" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>86</v>
+      <c r="A53" s="24" t="s">
+        <v>81</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>87</v>
+      <c r="B53" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>80</v>
+      <c r="A55" s="26" t="s">
+        <v>75</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>81</v>
+      <c r="A56" s="27" t="s">
+        <v>76</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="27"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
     </row>
     <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32492,7 +32464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -32527,7 +32499,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32541,7 +32513,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32563,7 +32535,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32587,7 +32559,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32601,7 +32573,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32787,22 +32759,22 @@
       <c r="B47" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>80</v>
+      <c r="A49" s="26" t="s">
+        <v>75</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32827,17 +32799,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="115.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="115.109375" style="4"/>
+    <col min="3" max="3" width="14.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="40.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -32893,7 +32865,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -32918,7 +32890,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -32964,11 +32936,9 @@
         <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -32980,9 +32950,7 @@
       <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -33001,7 +32969,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33012,10 +32980,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33026,10 +32994,10 @@
         <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33040,10 +33008,10 @@
         <v>53</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33057,7 +33025,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CEE7B0-4C1C-4472-88AC-BE4933C5237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F9F0B9-05EB-4F41-8107-FFBE875BA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
   <si>
     <t>Data</t>
   </si>
@@ -379,6 +379,21 @@
   <si>
     <t>Florença, Itália</t>
   </si>
+  <si>
+    <t>09/06 - 14:30HRS</t>
+  </si>
+  <si>
+    <t>13/06 - 11HRS</t>
+  </si>
+  <si>
+    <t>LARGO CONRADO RICCI 32, ROMA, 00184, ITÁLIA</t>
+  </si>
+  <si>
+    <t>HOTEL ROMANO</t>
+  </si>
+  <si>
+    <t>09/06 ATÉ 13/06</t>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +405,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +601,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -999,7 +1021,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,6 +1106,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -31328,8 +31356,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31405,10 +31433,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="31">
         <v>0.28125</v>
       </c>
     </row>
@@ -31460,19 +31488,25 @@
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -31481,22 +31515,28 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="30" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>4089308991</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
@@ -31692,8 +31732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32062,8 +32102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32137,10 +32177,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="31">
         <v>0.43055555555555558</v>
       </c>
     </row>
@@ -32219,10 +32259,10 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -32464,8 +32504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32799,7 +32839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F9F0B9-05EB-4F41-8107-FFBE875BA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25835192-748A-4BF6-B8D8-520D1C51553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,6 +1096,12 @@
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,12 +1112,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -31356,8 +31356,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31433,10 +31433,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="27">
         <v>0.28125</v>
       </c>
     </row>
@@ -31515,10 +31515,10 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>109</v>
       </c>
     </row>
@@ -31687,22 +31687,22 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="26"/>
+      <c r="B51" s="28"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32061,22 +32061,22 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="26"/>
+      <c r="B51" s="28"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32177,10 +32177,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="27">
         <v>0.43055555555555558</v>
       </c>
     </row>
@@ -32259,10 +32259,10 @@
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -32461,24 +32461,24 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="28"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32799,22 +32799,22 @@
       <c r="B47" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="28"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25835192-748A-4BF6-B8D8-520D1C51553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CF56A-FC89-4F82-9BEF-8CF333AE9E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31356,7 +31356,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -31733,7 +31733,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31789,7 +31789,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.76736111111111116</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31811,7 +31811,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>0.85416666666666663</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32102,8 +32102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD800C9E-2B5D-46E4-AA5C-E8C1FA7906E9}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32159,7 +32159,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CF56A-FC89-4F82-9BEF-8CF333AE9E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCABD3-C801-4982-A5D6-0B0069A4510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -31356,7 +31356,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -31732,7 +31732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -32839,8 +32839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCABD3-C801-4982-A5D6-0B0069A4510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -31356,8 +31356,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31732,8 +31732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32839,8 +32839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCABD3-C801-4982-A5D6-0B0069A4510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -31732,7 +31732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -32103,7 +32103,7 @@
   <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32504,8 +32504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32840,7 +32840,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCABD3-C801-4982-A5D6-0B0069A4510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B6DAE-746E-4AAD-824F-EF934965DCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -31356,8 +31356,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -31732,8 +31732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C092A-1790-447D-99A5-CA3424527F86}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32103,7 +32103,7 @@
   <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -32504,8 +32504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63243652-9771-4AF3-BD13-9222ADA25385}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B6DAE-746E-4AAD-824F-EF934965DCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4866142-A22E-4FF3-B0CD-66957C2FDA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="1245" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL - ITÁLIA(ROMA)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
   <si>
     <t>Data</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Zurique, Suíça</t>
   </si>
   <si>
-    <t>Lucerna, Suíça</t>
-  </si>
-  <si>
     <t>Brasil (Retorno)</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
   </si>
   <si>
     <t>Segunda-feira</t>
-  </si>
-  <si>
-    <t>Chegada em Roma.</t>
   </si>
   <si>
     <t>Terça-feira</t>
@@ -359,27 +353,6 @@
     <t>17/06 - 11HRS</t>
   </si>
   <si>
-    <t>Jungfrau Region e Retorno a Zurique 09h/15h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucerna e Interlaken 7h/14h/20h </t>
-  </si>
-  <si>
-    <t>Berna, Suíça</t>
-  </si>
-  <si>
-    <t>Jungfrau, Suíça</t>
-  </si>
-  <si>
-    <t>Mykonos, Grécia</t>
-  </si>
-  <si>
-    <t>Berna  8h/15h</t>
-  </si>
-  <si>
-    <t>Florença, Itália</t>
-  </si>
-  <si>
     <t>09/06 - 14:30HRS</t>
   </si>
   <si>
@@ -393,6 +366,30 @@
   </si>
   <si>
     <t>09/06 ATÉ 13/06</t>
+  </si>
+  <si>
+    <t>Interlaken, Suíça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurique, Suíça	</t>
+  </si>
+  <si>
+    <t>Engelberg, Suíça</t>
+  </si>
+  <si>
+    <t>Monte Titlis</t>
+  </si>
+  <si>
+    <t>Interlaken e Retorno a Zurique</t>
+  </si>
+  <si>
+    <t>Preparativos para o retorno ao Brasil e aproveitar o dia em Zurique</t>
+  </si>
+  <si>
+    <t>Chegada em Roma, Passeio de barco pelo rio Tibre</t>
+  </si>
+  <si>
+    <t>Visita à Fontana di Trevi e Praça Navona Panteão (nessa ordem).Visita a Galeria Borghese</t>
   </si>
 </sst>
 </file>
@@ -31356,7 +31353,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -31391,7 +31388,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31399,7 +31396,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31407,7 +31404,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31429,7 +31426,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31453,7 +31450,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31467,7 +31464,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31489,7 +31486,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31497,7 +31494,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31505,7 +31502,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31519,7 +31516,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31527,7 +31524,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31648,7 +31645,7 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2">
         <v>112</v>
@@ -31656,7 +31653,7 @@
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2">
         <v>115</v>
@@ -31664,7 +31661,7 @@
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2">
         <v>113</v>
@@ -31672,7 +31669,7 @@
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2">
         <v>118</v>
@@ -31680,15 +31677,15 @@
     </row>
     <row r="49" spans="1:2" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="28"/>
     </row>
@@ -31767,7 +31764,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31781,7 +31778,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31803,7 +31800,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31827,7 +31824,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31841,7 +31838,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31863,7 +31860,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31871,7 +31868,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31879,7 +31876,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31893,7 +31890,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -31901,7 +31898,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32022,7 +32019,7 @@
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2">
         <v>112</v>
@@ -32030,7 +32027,7 @@
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2">
         <v>199</v>
@@ -32038,7 +32035,7 @@
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2">
         <v>100</v>
@@ -32046,7 +32043,7 @@
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2">
         <v>166</v>
@@ -32054,15 +32051,15 @@
     </row>
     <row r="49" spans="1:2" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="28"/>
     </row>
@@ -32137,7 +32134,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32151,7 +32148,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32173,7 +32170,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32197,7 +32194,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32211,7 +32208,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32233,7 +32230,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32241,7 +32238,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32249,7 +32246,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32263,7 +32260,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32271,7 +32268,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32295,7 +32292,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32321,7 +32318,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32344,10 +32341,10 @@
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32422,7 +32419,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2">
         <v>112</v>
@@ -32430,7 +32427,7 @@
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2">
         <v>118</v>
@@ -32438,7 +32435,7 @@
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2">
         <v>117</v>
@@ -32446,7 +32443,7 @@
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2">
         <v>144</v>
@@ -32454,21 +32451,21 @@
     </row>
     <row r="53" spans="1:2" ht="225" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" s="28"/>
     </row>
     <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="29"/>
     </row>
@@ -32539,7 +32536,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32553,7 +32550,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32575,7 +32572,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32599,7 +32596,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32613,7 +32610,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -32800,7 +32797,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="28"/>
     </row>
@@ -32839,8 +32836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA16721-378E-4616-A6F8-BF817F572479}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32857,7 +32854,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -32871,7 +32868,7 @@
         <v>45451</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>39</v>
@@ -32885,13 +32882,13 @@
         <v>45452</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -32899,13 +32896,13 @@
         <v>45453</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -32913,13 +32910,13 @@
         <v>45454</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -32927,12 +32924,14 @@
         <v>45455</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
@@ -32945,13 +32944,13 @@
         <v>45456</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -32959,13 +32958,13 @@
         <v>45457</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -32973,10 +32972,10 @@
         <v>45092</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -32985,7 +32984,7 @@
         <v>45459</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>42</v>
@@ -33003,13 +33002,13 @@
         <v>45460</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33017,13 +33016,13 @@
         <v>45461</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33031,13 +33030,13 @@
         <v>45462</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -33045,13 +33044,13 @@
         <v>45463</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33059,13 +33058,13 @@
         <v>45464</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
